--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2144 +418,2350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.190442391480421</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.452919297008978</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.001288175395484195</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.001376616463066888</v>
+      </c>
+      <c r="E2">
         <v>0.1309407449700677</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.4069400575126547</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.7350643671072294</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.07822213417055232</v>
+      </c>
+      <c r="I2">
+        <v>0.5797523702978908</v>
+      </c>
+      <c r="J2">
         <v>0.4711612064980825</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>0.6240203284944512</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>1.44652530922288</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>0.9102299424440899</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N2" t="n">
-        <v>6.397150668362579</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>7.055213613898605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.2188313194029682</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.669503540041372</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.001533542137481185</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.001638829122698676</v>
+      </c>
+      <c r="E3">
         <v>0.1558818392500806</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.2712933716751032</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.4900429114048199</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.04469836238317274</v>
+      </c>
+      <c r="I3">
+        <v>0.3312870687416518</v>
+      </c>
+      <c r="J3">
         <v>0.5910931499703216</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>0.7828618666566751</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>2.242114229295466</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>1.410856410788339</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>7.834012180622626</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>8.21010289873267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.1783179535134997</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.360419776547227</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.001104150338986453</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.001179956968343047</v>
+      </c>
+      <c r="E4">
         <v>0.112234924260058</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.2147739192427899</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.3879506381954823</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.075428486521604</v>
+      </c>
+      <c r="I4">
+        <v>0.5590469285015375</v>
+      </c>
+      <c r="J4">
         <v>0.4625946391072083</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>0.6126745043400066</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>1.482688441953453</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>0.9329856910051921</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N4" t="n">
-        <v>5.773363486732142</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>6.407914708384642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.2040454194433081</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.556699246795333</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.001472200451981937</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.001573275957790729</v>
+      </c>
+      <c r="E5">
         <v>0.1496465656800773</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.3278128241074164</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.5921351846141573</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.05028565768106934</v>
+      </c>
+      <c r="I5">
+        <v>0.3726979523343584</v>
+      </c>
+      <c r="J5">
         <v>0.449744788020897</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>0.5956557681083399</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>1.048730849186589</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>0.6599167082719655</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.0107131622817529</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.04452453417472754</v>
       </c>
-      <c r="N5" t="n">
-        <v>5.641097251136546</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>6.064181936657782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.1939910074707394</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.479992327388027</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.002024275621475164</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.002163254441962253</v>
+      </c>
+      <c r="E6">
         <v>0.2057640278101063</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.2712933716751032</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.4900429114048199</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.04749201003212105</v>
+      </c>
+      <c r="I6">
+        <v>0.3519925105380051</v>
+      </c>
+      <c r="J6">
         <v>0.4454615043254598</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>0.5899828560311177</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>1.410362176492309</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>0.8874741938829876</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N6" t="n">
-        <v>5.990198076216266</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>6.389821575606879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.1901466734812277</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.450663211144057</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.0011654920244857</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.001245510133250994</v>
+      </c>
+      <c r="E7">
         <v>0.1184701978300612</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.2147739192427899</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.3879506381954823</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.06425389592581082</v>
+      </c>
+      <c r="I7">
+        <v>0.4762251613161247</v>
+      </c>
+      <c r="J7">
         <v>0.5011441923661424</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>0.6637307130350072</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>1.301872778300593</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>0.8192069481996813</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.02410461513394402</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.1001802018931369</v>
       </c>
-      <c r="N7" t="n">
-        <v>5.773409580846609</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>6.313968656197309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.1833451594997841</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.39877323625088</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.001778908879478174</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.001901041782330465</v>
+      </c>
+      <c r="E8">
         <v>0.1808229335300934</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.2260778097292526</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.4083690928373497</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.05587295297896593</v>
+      </c>
+      <c r="I8">
+        <v>0.4141088359270649</v>
+      </c>
+      <c r="J8">
         <v>0.4754444901935196</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>0.6296932405716736</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>1.08489398191716</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>0.6826724568330677</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.008034871711314675</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.03339340063104566</v>
       </c>
-      <c r="N8" t="n">
-        <v>5.313299582584619</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>5.783403504393503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.2055240094392742</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.567979676119937</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.0009814669679879581</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.001048850638527153</v>
+      </c>
+      <c r="E9">
         <v>0.09976437712005157</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.4521556194585052</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.8167381856746995</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.06704754357475912</v>
+      </c>
+      <c r="I9">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="J9">
         <v>0.4668779228026453</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>0.618347416417229</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>0.7955889200725846</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>0.5006264683442494</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.008034871711314675</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.03339340063104566</v>
       </c>
-      <c r="N9" t="n">
-        <v>5.566012334759524</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>6.1300578651173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.2501774273174474</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.908648641722974</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.001472200451981937</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.001573275957790729</v>
+      </c>
+      <c r="E10">
         <v>0.1496465656800773</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.2825972621615657</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.5104613660466873</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.06146024827686252</v>
+      </c>
+      <c r="I10">
+        <v>0.4555197195197714</v>
+      </c>
+      <c r="J10">
         <v>0.4069119510665258</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>0.5389266473361169</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>0.5786101236891524</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>0.3640919769776361</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N10" t="n">
-        <v>5.005353586564285</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>5.522434629866726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.2442630673335835</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1.863526924424559</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.0004293917984947317</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.0004588721543556294</v>
+      </c>
+      <c r="E11">
         <v>0.04364691499002256</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.305205043134491</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.5512982753304221</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.0726348388726557</v>
+      </c>
+      <c r="I11">
+        <v>0.5383414867051844</v>
+      </c>
+      <c r="J11">
         <v>0.2141641847718557</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>0.2836456038611142</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>0.3616313273057201</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>0.2275574856110225</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N11" t="n">
-        <v>4.122987066789525</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>4.733992872723226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.2152827034126497</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.642430509662323</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.0007361002259909685</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.0007866379788953647</v>
+      </c>
+      <c r="E12">
         <v>0.07482328284003867</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.2147739192427899</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.3879506381954823</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.09777766771319035</v>
+      </c>
+      <c r="I12">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="J12">
         <v>0.1541982130357361</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>0.2042248347800022</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>0.6147732564197246</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>0.3868477255387384</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N12" t="n">
-        <v>3.923660031581716</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>4.746178699920175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.1691506955385104</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.290481114734682</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.0003680501129954843</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.0003933189894476823</v>
+      </c>
+      <c r="E13">
         <v>0.03741164142001933</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.1695583572969395</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.3062768196280122</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.07822213417055232</v>
+      </c>
+      <c r="I13">
+        <v>0.5797523702978908</v>
+      </c>
+      <c r="J13">
         <v>0.1370650782539876</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.1815331864711131</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.3254681945751482</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>0.2048017370499203</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N13" t="n">
-        <v>2.835924299195448</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>3.493924072540343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.132777381637747</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.012982553349427</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.0005520751694932264</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.0005899784841715236</v>
+      </c>
+      <c r="E14">
         <v>0.05611746213002901</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.1582544668104768</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.2858583649861449</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.08939672476634548</v>
+      </c>
+      <c r="I14">
+        <v>0.6625741374833036</v>
+      </c>
+      <c r="J14">
         <v>0.08994895760417938</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.119131153621668</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>0.2169787963834321</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>0.1365344913666135</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>2.209135703059211</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>2.961144468623539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.08723680976199406</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.665545330151628</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.0002453667419969895</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.0002622126596317883</v>
+      </c>
+      <c r="E15">
         <v>0.02494109428001289</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.0678233429187758</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.122510727851205</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.05028565768106934</v>
+      </c>
+      <c r="I15">
+        <v>0.3726979523343584</v>
+      </c>
+      <c r="J15">
         <v>0.0642492554315567</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.08509368115833427</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.2531419291140042</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>0.1592902399277158</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N15" t="n">
-        <v>1.543887201451344</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>1.966887657384406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.04524485387655967</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.3451811373328784</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.0006747585404917213</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.0007210848139874176</v>
+      </c>
+      <c r="E16">
         <v>0.06858800927003544</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.09043112389170109</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.1633476371349399</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.02234918119158637</v>
+      </c>
+      <c r="I16">
+        <v>0.1656435343708259</v>
+      </c>
+      <c r="J16">
         <v>0.07709910651786805</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.1021124173900011</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.1808156636528601</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>0.1137787428055112</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>1.187273450412847</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>1.375312492248755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.03105038991528603</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.2368890158166812</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.0003067084274962369</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.0003277658245397354</v>
+      </c>
+      <c r="E17">
         <v>0.03117636785001611</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.02260778097292527</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.04083690928373497</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17">
         <v>0.03854955325893403</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.05105620869500056</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>0.1808156636528601</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>0.1137787428055112</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>0.7470673406784458</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>0.7470883980754893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.02513602993142202</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1917672985182658</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.0006134168549924738</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.0006555316490794707</v>
+      </c>
+      <c r="E18">
         <v>0.06235273570003222</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.04521556194585055</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.08167381856746994</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.002793647648948296</v>
+      </c>
+      <c r="I18">
+        <v>0.02070544179635324</v>
+      </c>
+      <c r="J18">
         <v>0.05139940434524536</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.06807494492666741</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>0.1446525309222881</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>0.09102299424440903</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N18" t="n">
-        <v>0.7895275841848832</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>0.8130687884242718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.01389874596208041</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.1060360356512763</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.0001840250564977421</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.0001966594947238412</v>
+      </c>
+      <c r="E19">
         <v>0.01870582071000967</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.04521556194585055</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.08167381856746994</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19">
         <v>0.05568268804068247</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.07374785700388971</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>0.2531419291140042</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>0.1592902399277158</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>0.8075767219794767</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>0.8075893564177028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.0136030279628872</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.1037799497863555</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.0001840250564977421</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.0001966594947238412</v>
+      </c>
+      <c r="E20">
         <v>0.01870582071000967</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.0339116714593879</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.06125536392560248</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.01117459059579319</v>
+      </c>
+      <c r="I20">
+        <v>0.08282176718541295</v>
+      </c>
+      <c r="J20">
         <v>0.03426626956349691</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>0.04538329661777827</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>0.07232626546114405</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>0.04551149712220452</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>0.4289271876653643</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>0.5229361798847966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.03548615990318405</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.2707303037904928</v>
       </c>
-      <c r="D21" t="n">
-        <v>6.134168549924738e-05</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>6.555316490794707E-05</v>
+      </c>
+      <c r="E21">
         <v>0.006235273570003223</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.04521556194585055</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.08167381856746994</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.005587295297896593</v>
+      </c>
+      <c r="I21">
+        <v>0.04141088359270648</v>
+      </c>
+      <c r="J21">
         <v>0.05568268804068247</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>0.07374785700388971</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>0.07232626546114405</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>0.04551149712220452</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>0.6866707670904205</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>0.7336731574604323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.1023184277208473</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.7806057092625872</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.000490733483993979</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.0005244253192635765</v>
+      </c>
+      <c r="E22">
         <v>0.04988218856002578</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.1695583572969395</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>0.3062768196280122</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.02514282884053467</v>
+      </c>
+      <c r="I22">
+        <v>0.1863489761671792</v>
+      </c>
+      <c r="J22">
         <v>0.1798979152083588</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>0.2382623072433359</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>0.5786101236891524</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>0.3640919769776361</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>2.769994559070889</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>2.981520055913873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.1620534635578738</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.236335053976584</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.0008587835969894634</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.0009177443087112589</v>
+      </c>
+      <c r="E23">
         <v>0.08729382998004512</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.1808622477834022</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>0.3266952742698798</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.09777766771319035</v>
+      </c>
+      <c r="I23">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="J23">
         <v>0.3212462771577835</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>0.4254684057916713</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>1.193383380108877</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>0.7509397025163743</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.01339145285219112</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.05565566771840942</v>
       </c>
-      <c r="N23" t="n">
-        <v>4.75418353931008</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>5.576710630607356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.2135083954174906</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.628893994472799</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.0005520751694932264</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.0005899784841715236</v>
+      </c>
+      <c r="E24">
         <v>0.05611746213002901</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.2825972621615657</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.5104613660466873</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.1061586106600353</v>
+      </c>
+      <c r="I24">
+        <v>0.786806788261423</v>
+      </c>
+      <c r="J24">
         <v>0.3512292630258433</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>0.4651787903322273</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>0.7232626546114402</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>0.455114971222045</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N24" t="n">
-        <v>4.714535082817861</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>5.607538385053997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0.2158741394110363</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1.646942681392164</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.0006134168549924738</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.0006555316490794707</v>
+      </c>
+      <c r="E25">
         <v>0.06235273570003222</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>0.2260778097292526</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>0.4083690928373497</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.0726348388726557</v>
+      </c>
+      <c r="I25">
+        <v>0.5383414867051844</v>
+      </c>
+      <c r="J25">
         <v>0.265563589117101</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>0.3517205487877815</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>1.08489398191716</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>0.6826724568330677</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.01606974342262935</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.06678680126209131</v>
       </c>
-      <c r="N25" t="n">
-        <v>5.027936997264658</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>5.638955437636585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.190442391480421</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.452919297008978</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.001288175395484195</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.001376616463066888</v>
+      </c>
+      <c r="E26">
         <v>0.1309407449700677</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>0.4069400575126547</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>0.7350643671072294</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.07822213417055232</v>
+      </c>
+      <c r="I26">
+        <v>0.5797523702978908</v>
+      </c>
+      <c r="J26">
         <v>0.4711612064980825</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>0.6240203284944512</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>1.44652530922288</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>0.9102299424440899</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N26" t="n">
-        <v>6.397150668362579</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>7.055213613898605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.1644192075514193</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.254383740895949</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.001288175395484195</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.001376616463066888</v>
+      </c>
+      <c r="E27">
         <v>0.1309407449700677</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>0.2939011526480285</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>0.5308798206885547</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.04749201003212105</v>
+      </c>
+      <c r="I27">
+        <v>0.3519925105380051</v>
+      </c>
+      <c r="J27">
         <v>0.5525435967113876</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>0.7318056579616747</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>1.012567716456017</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>0.6371609597108631</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N27" t="n">
-        <v>5.323700197103566</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>5.723273158741275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.1865980574909094</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.423590180765008</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.001778908879478174</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.001901041782330465</v>
+      </c>
+      <c r="E28">
         <v>0.1808229335300934</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>0.2939011526480285</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>0.5308798206885547</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.06425389592581082</v>
+      </c>
+      <c r="I28">
+        <v>0.4762251613161247</v>
+      </c>
+      <c r="J28">
         <v>0.4283283695437115</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>0.5672912077222284</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>1.44652530922288</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>0.9102299424440899</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N28" t="n">
-        <v>5.997564731163223</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>6.538165921308011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.1700378495360902</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.297249372329444</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.001533542137481185</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.001638829122698676</v>
+      </c>
+      <c r="E29">
         <v>0.1558818392500806</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>0.3165089336209537</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>0.5717167299722897</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.04749201003212105</v>
+      </c>
+      <c r="I29">
+        <v>0.3519925105380051</v>
+      </c>
+      <c r="J29">
         <v>0.3512292630258433</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>0.4651787903322273</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>0.6147732564197246</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>0.3868477255387384</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.008034871711314675</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.03339340063104566</v>
       </c>
-      <c r="N29" t="n">
-        <v>4.372385574505234</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>4.771975382060578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.1718121575312494</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.310785887518968</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.0009201252824887106</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.0009832974736192059</v>
+      </c>
+      <c r="E30">
         <v>0.09352910355004836</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>0.2825972621615657</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>0.5104613660466873</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.04190471473422445</v>
+      </c>
+      <c r="I30">
+        <v>0.3105816269452986</v>
+      </c>
+      <c r="J30">
         <v>0.4283283695437115</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>0.5672912077222284</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>1.193383380108877</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>0.7509397025163743</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.0107131622817529</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.04452453417472754</v>
       </c>
-      <c r="N30" t="n">
-        <v>5.36528625843868</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>5.717835772309333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.1724035935296359</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.31529805924881</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.001226833709984948</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.001311063298158941</v>
+      </c>
+      <c r="E31">
         <v>0.1247054714000644</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>0.3617244955668044</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>0.6533905485397595</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.04469836238317274</v>
+      </c>
+      <c r="I31">
+        <v>0.3312870687416518</v>
+      </c>
+      <c r="J31">
         <v>0.5011441923661424</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>0.6637307130350072</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>0.7594257873420127</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>0.4778707197831473</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N31" t="n">
-        <v>5.058539262749608</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>5.434608923462608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.1803879795078522</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.376212377601672</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.001410858766482689</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.001507722792882782</v>
+      </c>
+      <c r="E32">
         <v>0.1434112921100741</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>0.2825972621615657</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>0.5104613660466873</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.05866660062791421</v>
+      </c>
+      <c r="I32">
+        <v>0.4348142777234182</v>
+      </c>
+      <c r="J32">
         <v>0.5011441923661424</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>0.6637307130350072</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>0.8317520528031563</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>0.5233822169053518</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.008034871711314675</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.03339340063104566</v>
       </c>
-      <c r="N32" t="n">
-        <v>5.055918583646353</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>5.549496326024085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0.2055240094392742</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.567979676119937</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.0009814669679879581</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.001048850638527153</v>
+      </c>
+      <c r="E33">
         <v>0.09976437712005157</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>0.4521556194585052</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>0.8167381856746995</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.06704754357475912</v>
+      </c>
+      <c r="I33">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="J33">
         <v>0.4668779228026453</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>0.618347416417229</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>0.7955889200725846</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>0.5006264683442494</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.008034871711314675</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.03339340063104566</v>
       </c>
-      <c r="N33" t="n">
-        <v>5.566012334759524</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>6.1300578651173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.2501774273174474</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.908648641722974</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.001472200451981937</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.001573275957790729</v>
+      </c>
+      <c r="E34">
         <v>0.1496465656800773</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>0.2825972621615657</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>0.5104613660466873</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.06146024827686252</v>
+      </c>
+      <c r="I34">
+        <v>0.4555197195197714</v>
+      </c>
+      <c r="J34">
         <v>0.4069119510665258</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>0.5389266473361169</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>0.5786101236891524</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>0.3640919769776361</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N34" t="n">
-        <v>5.005353586564285</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>5.522434629866726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.2442630673335835</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1.863526924424559</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.0004293917984947317</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.0004588721543556294</v>
+      </c>
+      <c r="E35">
         <v>0.04364691499002256</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.305205043134491</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>0.5512982753304221</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.0726348388726557</v>
+      </c>
+      <c r="I35">
+        <v>0.5383414867051844</v>
+      </c>
+      <c r="J35">
         <v>0.2141641847718557</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>0.2836456038611142</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>0.3616313273057201</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>0.2275574856110225</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N35" t="n">
-        <v>4.122987066789525</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>4.733992872723226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.2152827034126497</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1.642430509662323</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.0007361002259909685</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.0007866379788953647</v>
+      </c>
+      <c r="E36">
         <v>0.07482328284003867</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.2147739192427899</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0.3879506381954823</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.09777766771319035</v>
+      </c>
+      <c r="I36">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="J36">
         <v>0.1541982130357361</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>0.2042248347800022</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>0.6147732564197246</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>0.3868477255387384</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N36" t="n">
-        <v>3.923660031581716</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>4.746178699920175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.1691506955385104</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1.290481114734682</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.0003680501129954843</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.0003933189894476823</v>
+      </c>
+      <c r="E37">
         <v>0.03741164142001933</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.1695583572969395</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0.3062768196280122</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.07822213417055232</v>
+      </c>
+      <c r="I37">
+        <v>0.5797523702978908</v>
+      </c>
+      <c r="J37">
         <v>0.1370650782539876</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>0.1815331864711131</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>0.3254681945751482</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>0.2048017370499203</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N37" t="n">
-        <v>2.835924299195448</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>3.493924072540343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.132777381637747</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.012982553349427</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.0005520751694932264</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.0005899784841715236</v>
+      </c>
+      <c r="E38">
         <v>0.05611746213002901</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.1582544668104768</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.2858583649861449</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.08939672476634548</v>
+      </c>
+      <c r="I38">
+        <v>0.6625741374833036</v>
+      </c>
+      <c r="J38">
         <v>0.08994895760417938</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.119131153621668</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>0.2169787963834321</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>0.1365344913666135</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>2.209135703059211</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>2.961144468623539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.08723680976199406</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.665545330151628</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.0002453667419969895</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.0002622126596317883</v>
+      </c>
+      <c r="E39">
         <v>0.02494109428001289</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.0678233429187758</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.122510727851205</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.05028565768106934</v>
+      </c>
+      <c r="I39">
+        <v>0.3726979523343584</v>
+      </c>
+      <c r="J39">
         <v>0.0642492554315567</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.08509368115833427</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>0.2531419291140042</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>0.1592902399277158</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.002678290570438224</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.01113113354368189</v>
       </c>
-      <c r="N39" t="n">
-        <v>1.543887201451344</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>1.966887657384406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.04524485387655967</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.3451811373328784</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.0006747585404917213</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.0007210848139874176</v>
+      </c>
+      <c r="E40">
         <v>0.06858800927003544</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.09043112389170109</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.1633476371349399</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.02234918119158637</v>
+      </c>
+      <c r="I40">
+        <v>0.1656435343708259</v>
+      </c>
+      <c r="J40">
         <v>0.07709910651786805</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.1021124173900011</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>0.1808156636528601</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>0.1137787428055112</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>1.187273450412847</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>1.375312492248755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.03105038991528603</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.2368890158166812</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.0003067084274962369</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.0003277658245397354</v>
+      </c>
+      <c r="E41">
         <v>0.03117636785001611</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.02260778097292527</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.04083690928373497</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41">
         <v>0.03854955325893403</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.05105620869500056</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>0.1808156636528601</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>0.1137787428055112</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>0.7470673406784458</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>0.7470883980754893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.02513602993142202</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.1917672985182658</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.0006134168549924738</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.0006555316490794707</v>
+      </c>
+      <c r="E42">
         <v>0.06235273570003222</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.04521556194585055</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.08167381856746994</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.002793647648948296</v>
+      </c>
+      <c r="I42">
+        <v>0.02070544179635324</v>
+      </c>
+      <c r="J42">
         <v>0.05139940434524536</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.06807494492666741</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>0.1446525309222881</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>0.09102299424440903</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N42" t="n">
-        <v>0.7895275841848832</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>0.8130687884242718</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.01389874596208041</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.1060360356512763</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.0001840250564977421</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.0001966594947238412</v>
+      </c>
+      <c r="E43">
         <v>0.01870582071000967</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.04521556194585055</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.08167381856746994</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43">
         <v>0.05568268804068247</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.07374785700388971</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>0.2531419291140042</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>0.1592902399277158</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>0.8075767219794767</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>0.8075893564177028</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.0136030279628872</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.1037799497863555</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.0001840250564977421</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.0001966594947238412</v>
+      </c>
+      <c r="E44">
         <v>0.01870582071000967</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.0339116714593879</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.06125536392560248</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.01117459059579319</v>
+      </c>
+      <c r="I44">
+        <v>0.08282176718541295</v>
+      </c>
+      <c r="J44">
         <v>0.03426626956349691</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>0.04538329661777827</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>0.07232626546114405</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>0.04551149712220452</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>0.4289271876653643</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>0.5229361798847966</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.03548615990318405</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.2707303037904928</v>
       </c>
-      <c r="D45" t="n">
-        <v>6.134168549924738e-05</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>6.555316490794707E-05</v>
+      </c>
+      <c r="E45">
         <v>0.006235273570003223</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.04521556194585055</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.08167381856746994</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.005587295297896593</v>
+      </c>
+      <c r="I45">
+        <v>0.04141088359270648</v>
+      </c>
+      <c r="J45">
         <v>0.05568268804068247</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>0.07374785700388971</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>0.07232626546114405</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>0.04551149712220452</v>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
-        <v>0.6866707670904205</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>0.7336731574604323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.1023184277208473</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.7806057092625872</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.000490733483993979</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.0005244253192635765</v>
+      </c>
+      <c r="E46">
         <v>0.04988218856002578</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>0.1695583572969395</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>0.3062768196280122</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.02514282884053467</v>
+      </c>
+      <c r="I46">
+        <v>0.1863489761671792</v>
+      </c>
+      <c r="J46">
         <v>0.1798979152083588</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>0.2382623072433359</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>0.5786101236891524</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>0.3640919769776361</v>
       </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
-        <v>2.769994559070889</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>2.981520055913873</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.1620534635578738</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.236335053976584</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.0008587835969894634</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.0009177443087112589</v>
+      </c>
+      <c r="E47">
         <v>0.08729382998004512</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>0.1808622477834022</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>0.3266952742698798</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.09777766771319035</v>
+      </c>
+      <c r="I47">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="J47">
         <v>0.3212462771577835</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>0.4254684057916713</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>1.193383380108877</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>0.7509397025163743</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.01339145285219112</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.05565566771840942</v>
       </c>
-      <c r="N47" t="n">
-        <v>4.75418353931008</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>5.576710630607356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>0.2135083954174906</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1.628893994472799</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.0005520751694932264</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.0005899784841715236</v>
+      </c>
+      <c r="E48">
         <v>0.05611746213002901</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>0.2825972621615657</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>0.5104613660466873</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.1061586106600353</v>
+      </c>
+      <c r="I48">
+        <v>0.786806788261423</v>
+      </c>
+      <c r="J48">
         <v>0.3512292630258433</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>0.4651787903322273</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>0.7232626546114402</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>0.455114971222045</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.005356581140876449</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.02226226708736377</v>
       </c>
-      <c r="N48" t="n">
-        <v>4.714535082817861</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>5.607538385053997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>0.2158741394110363</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1.646942681392164</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.0006134168549924738</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.0006555316490794707</v>
+      </c>
+      <c r="E49">
         <v>0.06235273570003222</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>0.2260778097292526</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>0.4083690928373497</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.0726348388726557</v>
+      </c>
+      <c r="I49">
+        <v>0.5383414867051844</v>
+      </c>
+      <c r="J49">
         <v>0.265563589117101</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>0.3517205487877815</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>1.08489398191716</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>0.6826724568330677</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.01606974342262935</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.06678680126209131</v>
       </c>
-      <c r="N49" t="n">
-        <v>5.027936997264658</v>
+      <c r="P49">
+        <v>5.638955437636585</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.190442391480421</v>
+        <v>0.844123032507812</v>
       </c>
       <c r="C2">
-        <v>1.452919297008978</v>
+        <v>6.439966613769521</v>
       </c>
       <c r="D2">
-        <v>0.001376616463066888</v>
+        <v>0.006101759457918099</v>
       </c>
       <c r="E2">
-        <v>0.1309407449700677</v>
+        <v>0.5803860047321919</v>
       </c>
       <c r="F2">
-        <v>0.4069400575126547</v>
+        <v>1.803734308975009</v>
       </c>
       <c r="G2">
-        <v>0.7350643671072294</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="H2">
-        <v>0.07822213417055232</v>
+        <v>0.3467143244316371</v>
       </c>
       <c r="I2">
-        <v>0.5797523702978908</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="J2">
-        <v>0.4711612064980825</v>
+        <v>2.088390212586095</v>
       </c>
       <c r="K2">
-        <v>0.6240203284944512</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="L2">
-        <v>1.44652530922288</v>
+        <v>6.411625694933852</v>
       </c>
       <c r="M2">
-        <v>0.9102299424440899</v>
+        <v>4.034532717860292</v>
       </c>
       <c r="N2">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O2">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P2">
-        <v>7.055213613898605</v>
+        <v>31.271757639983</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,43 +530,43 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.2188313194029682</v>
+        <v>0.9699550373536967</v>
       </c>
       <c r="C3">
-        <v>1.669503540041372</v>
+        <v>7.399961636940136</v>
       </c>
       <c r="D3">
-        <v>0.001638829122698676</v>
+        <v>0.007263999354664404</v>
       </c>
       <c r="E3">
-        <v>0.1558818392500806</v>
+        <v>0.690935719919276</v>
       </c>
       <c r="F3">
-        <v>0.2712933716751032</v>
+        <v>1.202489539316673</v>
       </c>
       <c r="G3">
-        <v>0.4900429114048199</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="H3">
-        <v>0.04469836238317274</v>
+        <v>0.1981224711037927</v>
       </c>
       <c r="I3">
-        <v>0.3312870687416518</v>
+        <v>1.468407547935971</v>
       </c>
       <c r="J3">
-        <v>0.5910931499703216</v>
+        <v>2.619980448517101</v>
       </c>
       <c r="K3">
-        <v>0.7828618666566751</v>
+        <v>3.469982327883641</v>
       </c>
       <c r="L3">
-        <v>2.242114229295466</v>
+        <v>9.938019827147469</v>
       </c>
       <c r="M3">
-        <v>1.410856410788339</v>
+        <v>6.253525712683452</v>
       </c>
       <c r="P3">
-        <v>8.21010289873267</v>
+        <v>36.39072636195021</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -574,49 +574,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.1783179535134997</v>
+        <v>0.7903822804382152</v>
       </c>
       <c r="C4">
-        <v>1.360419776547227</v>
+        <v>6.02996873929041</v>
       </c>
       <c r="D4">
-        <v>0.001179956968343047</v>
+        <v>0.005230079535358371</v>
       </c>
       <c r="E4">
-        <v>0.112234924260058</v>
+        <v>0.4974737183418786</v>
       </c>
       <c r="F4">
-        <v>0.2147739192427899</v>
+        <v>0.9519708852923661</v>
       </c>
       <c r="G4">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H4">
-        <v>0.075428486521604</v>
+        <v>0.3343316699876502</v>
       </c>
       <c r="I4">
-        <v>0.5590469285015375</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="J4">
-        <v>0.4625946391072083</v>
+        <v>2.050419481448166</v>
       </c>
       <c r="K4">
-        <v>0.6126745043400066</v>
+        <v>2.715638343561111</v>
       </c>
       <c r="L4">
-        <v>1.482688441953453</v>
+        <v>6.571916337307199</v>
       </c>
       <c r="M4">
-        <v>0.9329856910051921</v>
+        <v>4.135396035806799</v>
       </c>
       <c r="N4">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O4">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P4">
-        <v>6.407914708384642</v>
+        <v>28.4026489777049</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -624,49 +624,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.2040454194433081</v>
+        <v>0.9044175348297988</v>
       </c>
       <c r="C5">
-        <v>1.556699246795333</v>
+        <v>6.899964229038773</v>
       </c>
       <c r="D5">
-        <v>0.001573275957790729</v>
+        <v>0.006973439380477828</v>
       </c>
       <c r="E5">
-        <v>0.1496465656800773</v>
+        <v>0.6632982911225049</v>
       </c>
       <c r="F5">
-        <v>0.3278128241074164</v>
+        <v>1.45300819334098</v>
       </c>
       <c r="G5">
-        <v>0.5921351846141573</v>
+        <v>2.624599196668157</v>
       </c>
       <c r="H5">
-        <v>0.05028565768106934</v>
+        <v>0.2228877799917668</v>
       </c>
       <c r="I5">
-        <v>0.3726979523343584</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="J5">
-        <v>0.449744788020897</v>
+        <v>1.993463384741273</v>
       </c>
       <c r="K5">
-        <v>0.5956557681083399</v>
+        <v>2.640203945128857</v>
       </c>
       <c r="L5">
-        <v>1.048730849186589</v>
+        <v>4.648428628827042</v>
       </c>
       <c r="M5">
-        <v>0.6599167082719655</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="N5">
-        <v>0.0107131622817529</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O5">
-        <v>0.04452453417472754</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P5">
-        <v>6.064181936657782</v>
+        <v>26.87907669221287</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -674,49 +674,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.1939910074707394</v>
+        <v>0.8598520331135481</v>
       </c>
       <c r="C6">
-        <v>1.479992327388027</v>
+        <v>6.55996599166585</v>
       </c>
       <c r="D6">
-        <v>0.002163254441962253</v>
+        <v>0.009588479148157011</v>
       </c>
       <c r="E6">
-        <v>0.2057640278101063</v>
+        <v>0.9120351502934443</v>
       </c>
       <c r="F6">
-        <v>0.2712933716751032</v>
+        <v>1.202489539316673</v>
       </c>
       <c r="G6">
-        <v>0.4900429114048199</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="H6">
-        <v>0.04749201003212105</v>
+        <v>0.2105051255477798</v>
       </c>
       <c r="I6">
-        <v>0.3519925105380051</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="J6">
-        <v>0.4454615043254598</v>
+        <v>1.974478019172308</v>
       </c>
       <c r="K6">
-        <v>0.5899828560311177</v>
+        <v>2.615059145651439</v>
       </c>
       <c r="L6">
-        <v>1.410362176492309</v>
+        <v>6.251335052560505</v>
       </c>
       <c r="M6">
-        <v>0.8874741938829876</v>
+        <v>3.933669399913784</v>
       </c>
       <c r="N6">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O6">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P6">
-        <v>6.389821575606879</v>
+        <v>28.32245238917643</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -724,49 +724,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.1901466734812277</v>
+        <v>0.8428122824573336</v>
       </c>
       <c r="C7">
-        <v>1.450663211144057</v>
+        <v>6.429966665611493</v>
       </c>
       <c r="D7">
-        <v>0.001245510133250994</v>
+        <v>0.005520639509544946</v>
       </c>
       <c r="E7">
-        <v>0.1184701978300612</v>
+        <v>0.5251111471386498</v>
       </c>
       <c r="F7">
-        <v>0.2147739192427899</v>
+        <v>0.9519708852923661</v>
       </c>
       <c r="G7">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H7">
-        <v>0.06425389592581082</v>
+        <v>0.2848010522117021</v>
       </c>
       <c r="I7">
-        <v>0.4762251613161247</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="J7">
-        <v>0.5011441923661424</v>
+        <v>2.221287771568848</v>
       </c>
       <c r="K7">
-        <v>0.6637307130350072</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="L7">
-        <v>1.301872778300593</v>
+        <v>5.770463125440465</v>
       </c>
       <c r="M7">
-        <v>0.8192069481996813</v>
+        <v>3.631079446074262</v>
       </c>
       <c r="N7">
-        <v>0.02410461513394402</v>
+        <v>0.1068420778909951</v>
       </c>
       <c r="O7">
-        <v>0.1001802018931369</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="P7">
-        <v>6.313968656197309</v>
+        <v>27.98623944909077</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -774,49 +774,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.1833451594997841</v>
+        <v>0.8126650312963407</v>
       </c>
       <c r="C8">
-        <v>1.39877323625088</v>
+        <v>6.19996785797687</v>
       </c>
       <c r="D8">
-        <v>0.001901041782330465</v>
+        <v>0.008426239251410707</v>
       </c>
       <c r="E8">
-        <v>0.1808229335300934</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="F8">
-        <v>0.2260778097292526</v>
+        <v>1.002074616097228</v>
       </c>
       <c r="G8">
-        <v>0.4083690928373497</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="H8">
-        <v>0.05587295297896593</v>
+        <v>0.2476530888797409</v>
       </c>
       <c r="I8">
-        <v>0.4141088359270649</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="J8">
-        <v>0.4754444901935196</v>
+        <v>2.10737557815506</v>
       </c>
       <c r="K8">
-        <v>0.6296932405716736</v>
+        <v>2.791072741993363</v>
       </c>
       <c r="L8">
-        <v>1.08489398191716</v>
+        <v>4.808719271200388</v>
       </c>
       <c r="M8">
-        <v>0.6826724568330677</v>
+        <v>3.025899538395219</v>
       </c>
       <c r="N8">
-        <v>0.008034871711314675</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O8">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P8">
-        <v>5.783403504393503</v>
+        <v>25.63454526271715</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -824,49 +824,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.2055240094392742</v>
+        <v>0.9109712850821887</v>
       </c>
       <c r="C9">
-        <v>1.567979676119937</v>
+        <v>6.94996396982891</v>
       </c>
       <c r="D9">
-        <v>0.001048850638527153</v>
+        <v>0.004648959586985218</v>
       </c>
       <c r="E9">
-        <v>0.09976437712005157</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="F9">
-        <v>0.4521556194585052</v>
+        <v>2.004149232194456</v>
       </c>
       <c r="G9">
-        <v>0.8167381856746995</v>
+        <v>3.62013682299056</v>
       </c>
       <c r="H9">
-        <v>0.06704754357475912</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I9">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J9">
-        <v>0.4668779228026453</v>
+        <v>2.069404847017131</v>
       </c>
       <c r="K9">
-        <v>0.618347416417229</v>
+        <v>2.740783143038528</v>
       </c>
       <c r="L9">
-        <v>0.7955889200725846</v>
+        <v>3.526394132213617</v>
       </c>
       <c r="M9">
-        <v>0.5006264683442494</v>
+        <v>2.21899299482316</v>
       </c>
       <c r="N9">
-        <v>0.008034871711314675</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O9">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P9">
-        <v>6.1300578651173</v>
+        <v>27.17106729403344</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -874,49 +874,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.2501774273174474</v>
+        <v>1.108894542704361</v>
       </c>
       <c r="C10">
-        <v>1.908648641722974</v>
+        <v>8.459956141691018</v>
       </c>
       <c r="D10">
-        <v>0.001573275957790729</v>
+        <v>0.006973439380477828</v>
       </c>
       <c r="E10">
-        <v>0.1496465656800773</v>
+        <v>0.6632982911225049</v>
       </c>
       <c r="F10">
-        <v>0.2825972621615657</v>
+        <v>1.252593270121535</v>
       </c>
       <c r="G10">
-        <v>0.5104613660466873</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H10">
-        <v>0.06146024827686252</v>
+        <v>0.2724183977677149</v>
       </c>
       <c r="I10">
-        <v>0.4555197195197714</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="J10">
-        <v>0.4069119510665258</v>
+        <v>1.803609729051628</v>
       </c>
       <c r="K10">
-        <v>0.5389266473361169</v>
+        <v>2.388755950354681</v>
       </c>
       <c r="L10">
-        <v>0.5786101236891524</v>
+        <v>2.564650277973541</v>
       </c>
       <c r="M10">
-        <v>0.3640919769776361</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="N10">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O10">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P10">
-        <v>5.522434629866726</v>
+        <v>24.47781835940928</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,49 +924,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.2442630673335835</v>
+        <v>1.082679541694802</v>
       </c>
       <c r="C11">
-        <v>1.863526924424559</v>
+        <v>8.259957178530476</v>
       </c>
       <c r="D11">
-        <v>0.0004588721543556294</v>
+        <v>0.002033919819306034</v>
       </c>
       <c r="E11">
-        <v>0.04364691499002256</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="F11">
-        <v>0.305205043134491</v>
+        <v>1.352800731731257</v>
       </c>
       <c r="G11">
-        <v>0.5512982753304221</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="H11">
-        <v>0.0726348388726557</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I11">
-        <v>0.5383414867051844</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J11">
-        <v>0.2141641847718557</v>
+        <v>0.949268278448225</v>
       </c>
       <c r="K11">
-        <v>0.2836456038611142</v>
+        <v>1.257239973870885</v>
       </c>
       <c r="L11">
-        <v>0.3616313273057201</v>
+        <v>1.602906423733463</v>
       </c>
       <c r="M11">
-        <v>0.2275574856110225</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="N11">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O11">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P11">
-        <v>4.733992872723226</v>
+        <v>20.98310354396241</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,49 +974,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.2152827034126497</v>
+        <v>0.9542260367479611</v>
       </c>
       <c r="C12">
-        <v>1.642430509662323</v>
+        <v>7.279962259043809</v>
       </c>
       <c r="D12">
-        <v>0.0007866379788953647</v>
+        <v>0.003486719690238914</v>
       </c>
       <c r="E12">
-        <v>0.07482328284003867</v>
+        <v>0.3316491455612525</v>
       </c>
       <c r="F12">
-        <v>0.2147739192427899</v>
+        <v>0.9519708852923661</v>
       </c>
       <c r="G12">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H12">
-        <v>0.09777766771319035</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I12">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J12">
-        <v>0.1541982130357361</v>
+        <v>0.6834731604827222</v>
       </c>
       <c r="K12">
-        <v>0.2042248347800022</v>
+        <v>0.9052127811870367</v>
       </c>
       <c r="L12">
-        <v>0.6147732564197246</v>
+        <v>2.724940920346885</v>
       </c>
       <c r="M12">
-        <v>0.3868477255387384</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="N12">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O12">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P12">
-        <v>4.746178699920175</v>
+        <v>21.03711639964617</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.1691506955385104</v>
+        <v>0.7497490288733983</v>
       </c>
       <c r="C13">
-        <v>1.290481114734682</v>
+        <v>5.719970346391564</v>
       </c>
       <c r="D13">
-        <v>0.0003933189894476823</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E13">
-        <v>0.03741164142001933</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F13">
-        <v>0.1695583572969395</v>
+        <v>0.7515559620729207</v>
       </c>
       <c r="G13">
-        <v>0.3062768196280122</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="H13">
-        <v>0.07822213417055232</v>
+        <v>0.3467143244316371</v>
       </c>
       <c r="I13">
-        <v>0.5797523702978908</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="J13">
-        <v>0.1370650782539876</v>
+        <v>0.6075316982068641</v>
       </c>
       <c r="K13">
-        <v>0.1815331864711131</v>
+        <v>0.8046335832773662</v>
       </c>
       <c r="L13">
-        <v>0.3254681945751482</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M13">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N13">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O13">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P13">
-        <v>3.493924072540343</v>
+        <v>15.48658237558423</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.132777381637747</v>
+        <v>0.5885267726646078</v>
       </c>
       <c r="C14">
-        <v>1.012982553349427</v>
+        <v>4.489976722954217</v>
       </c>
       <c r="D14">
-        <v>0.0005899784841715236</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E14">
-        <v>0.05611746213002901</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F14">
-        <v>0.1582544668104768</v>
+        <v>0.7014522312680597</v>
       </c>
       <c r="G14">
-        <v>0.2858583649861449</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="H14">
-        <v>0.08939672476634548</v>
+        <v>0.3962449422075854</v>
       </c>
       <c r="I14">
-        <v>0.6625741374833036</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="J14">
-        <v>0.08994895760417938</v>
+        <v>0.3986926769482546</v>
       </c>
       <c r="K14">
-        <v>0.119131153621668</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="L14">
-        <v>0.2169787963834321</v>
+        <v>0.9617438542400777</v>
       </c>
       <c r="M14">
-        <v>0.1365344913666135</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="P14">
-        <v>2.961144468623539</v>
+        <v>13.12507277984488</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,49 +1118,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.08723680976199406</v>
+        <v>0.3866712648910009</v>
       </c>
       <c r="C15">
-        <v>0.665545330151628</v>
+        <v>2.949984706618028</v>
       </c>
       <c r="D15">
-        <v>0.0002622126596317883</v>
+        <v>0.001162239896746305</v>
       </c>
       <c r="E15">
-        <v>0.02494109428001289</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="F15">
-        <v>0.0678233429187758</v>
+        <v>0.3006223848291682</v>
       </c>
       <c r="G15">
-        <v>0.122510727851205</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="H15">
-        <v>0.05028565768106934</v>
+        <v>0.2228877799917668</v>
       </c>
       <c r="I15">
-        <v>0.3726979523343584</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="J15">
-        <v>0.0642492554315567</v>
+        <v>0.2847804835344675</v>
       </c>
       <c r="K15">
-        <v>0.08509368115833427</v>
+        <v>0.3771719921612653</v>
       </c>
       <c r="L15">
-        <v>0.2531419291140042</v>
+        <v>1.122034496613424</v>
       </c>
       <c r="M15">
-        <v>0.1592902399277158</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="N15">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O15">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P15">
-        <v>1.966887657384406</v>
+        <v>8.718096643541694</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1168,43 +1168,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.04524485387655967</v>
+        <v>0.2005447577231292</v>
       </c>
       <c r="C16">
-        <v>0.3451811373328784</v>
+        <v>1.529992068178162</v>
       </c>
       <c r="D16">
-        <v>0.0007210848139874176</v>
+        <v>0.003196159716052338</v>
       </c>
       <c r="E16">
-        <v>0.06858800927003544</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="F16">
-        <v>0.09043112389170109</v>
+        <v>0.4008298464388911</v>
       </c>
       <c r="G16">
-        <v>0.1633476371349399</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H16">
-        <v>0.02234918119158637</v>
+        <v>0.09906123555189636</v>
       </c>
       <c r="I16">
-        <v>0.1656435343708259</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="J16">
-        <v>0.07709910651786805</v>
+        <v>0.3417365802413611</v>
       </c>
       <c r="K16">
-        <v>0.1021124173900011</v>
+        <v>0.4526063905935184</v>
       </c>
       <c r="L16">
-        <v>0.1808156636528601</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M16">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P16">
-        <v>1.375312492248755</v>
+        <v>6.095979695372859</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1212,37 +1212,37 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.03105038991528603</v>
+        <v>0.1376287553001867</v>
       </c>
       <c r="C17">
-        <v>0.2368890158166812</v>
+        <v>1.049994556592857</v>
       </c>
       <c r="D17">
-        <v>0.0003277658245397354</v>
+        <v>0.001452799870932881</v>
       </c>
       <c r="E17">
-        <v>0.03117636785001611</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="F17">
-        <v>0.02260778097292527</v>
+        <v>0.1002074616097228</v>
       </c>
       <c r="G17">
-        <v>0.04083690928373497</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="J17">
-        <v>0.03854955325893403</v>
+        <v>0.1708682901206806</v>
       </c>
       <c r="K17">
-        <v>0.05105620869500056</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="L17">
-        <v>0.1808156636528601</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M17">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P17">
-        <v>0.7470883980754893</v>
+        <v>3.31141884552379</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1250,49 +1250,49 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.02513602993142202</v>
+        <v>0.1114137542906273</v>
       </c>
       <c r="C18">
-        <v>0.1917672985182658</v>
+        <v>0.8499955934323126</v>
       </c>
       <c r="D18">
-        <v>0.0006555316490794707</v>
+        <v>0.002905599741865762</v>
       </c>
       <c r="E18">
-        <v>0.06235273570003222</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="F18">
-        <v>0.04521556194585055</v>
+        <v>0.2004149232194455</v>
       </c>
       <c r="G18">
-        <v>0.08167381856746994</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="H18">
-        <v>0.002793647648948296</v>
+        <v>0.01238265444398704</v>
       </c>
       <c r="I18">
-        <v>0.02070544179635324</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="J18">
-        <v>0.05139940434524536</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K18">
-        <v>0.06807494492666741</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L18">
-        <v>0.1446525309222881</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M18">
-        <v>0.09102299424440903</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="N18">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O18">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P18">
-        <v>0.8130687884242718</v>
+        <v>3.603872467610284</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1300,37 +1300,37 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.01389874596208041</v>
+        <v>0.06160525237246452</v>
       </c>
       <c r="C19">
-        <v>0.1060360356512763</v>
+        <v>0.4699975634272788</v>
       </c>
       <c r="D19">
-        <v>0.0001966594947238412</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E19">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F19">
-        <v>0.04521556194585055</v>
+        <v>0.2004149232194455</v>
       </c>
       <c r="G19">
-        <v>0.08167381856746994</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="J19">
-        <v>0.05568268804068247</v>
+        <v>0.2468097523965385</v>
       </c>
       <c r="K19">
-        <v>0.07374785700388971</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="L19">
-        <v>0.2531419291140042</v>
+        <v>1.122034496613424</v>
       </c>
       <c r="M19">
-        <v>0.1592902399277158</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="P19">
-        <v>0.8075893564177028</v>
+        <v>3.579585255473061</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1338,43 +1338,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.0136030279628872</v>
+        <v>0.06029450232198658</v>
       </c>
       <c r="C20">
-        <v>0.1037799497863555</v>
+        <v>0.4599976152692518</v>
       </c>
       <c r="D20">
-        <v>0.0001966594947238412</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E20">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F20">
-        <v>0.0339116714593879</v>
+        <v>0.1503111924145841</v>
       </c>
       <c r="G20">
-        <v>0.06125536392560248</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="H20">
-        <v>0.01117459059579319</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I20">
-        <v>0.08282176718541295</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J20">
-        <v>0.03426626956349691</v>
+        <v>0.151882924551716</v>
       </c>
       <c r="K20">
-        <v>0.04538329661777827</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="L20">
-        <v>0.07232626546114405</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M20">
-        <v>0.04551149712220452</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="P20">
-        <v>0.5229361798847966</v>
+        <v>2.317879283813693</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1382,43 +1382,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.03548615990318405</v>
+        <v>0.1572900060573562</v>
       </c>
       <c r="C21">
-        <v>0.2707303037904928</v>
+        <v>1.199993778963265</v>
       </c>
       <c r="D21">
-        <v>6.555316490794707E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E21">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F21">
-        <v>0.04521556194585055</v>
+        <v>0.2004149232194455</v>
       </c>
       <c r="G21">
-        <v>0.08167381856746994</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="H21">
-        <v>0.005587295297896593</v>
+        <v>0.02476530888797409</v>
       </c>
       <c r="I21">
-        <v>0.04141088359270648</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="J21">
-        <v>0.05568268804068247</v>
+        <v>0.2468097523965385</v>
       </c>
       <c r="K21">
-        <v>0.07374785700388971</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="L21">
-        <v>0.07232626546114405</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M21">
-        <v>0.04551149712220452</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="P21">
-        <v>0.7336731574604323</v>
+        <v>3.251956697932726</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1426,43 +1426,43 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.1023184277208473</v>
+        <v>0.4535195174653773</v>
       </c>
       <c r="C22">
-        <v>0.7806057092625872</v>
+        <v>3.459982062677413</v>
       </c>
       <c r="D22">
-        <v>0.0005244253192635765</v>
+        <v>0.002324479793492609</v>
       </c>
       <c r="E22">
-        <v>0.04988218856002578</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="F22">
-        <v>0.1695583572969395</v>
+        <v>0.7515559620729207</v>
       </c>
       <c r="G22">
-        <v>0.3062768196280122</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="H22">
-        <v>0.02514282884053467</v>
+        <v>0.1114438899958834</v>
       </c>
       <c r="I22">
-        <v>0.1863489761671792</v>
+        <v>0.8259792457139835</v>
       </c>
       <c r="J22">
-        <v>0.1798979152083588</v>
+        <v>0.7973853538965091</v>
       </c>
       <c r="K22">
-        <v>0.2382623072433359</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="L22">
-        <v>0.5786101236891524</v>
+        <v>2.564650277973541</v>
       </c>
       <c r="M22">
-        <v>0.3640919769776361</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="P22">
-        <v>2.981520055913873</v>
+        <v>13.21538619378041</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1470,49 +1470,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.1620534635578738</v>
+        <v>0.7182910276619268</v>
       </c>
       <c r="C23">
-        <v>1.236335053976584</v>
+        <v>5.479971590598911</v>
       </c>
       <c r="D23">
-        <v>0.0009177443087112589</v>
+        <v>0.004067839638612067</v>
       </c>
       <c r="E23">
-        <v>0.08729382998004512</v>
+        <v>0.3869240031547946</v>
       </c>
       <c r="F23">
-        <v>0.1808622477834022</v>
+        <v>0.8016596928777822</v>
       </c>
       <c r="G23">
-        <v>0.3266952742698798</v>
+        <v>1.448054729196224</v>
       </c>
       <c r="H23">
-        <v>0.09777766771319035</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I23">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J23">
-        <v>0.3212462771577835</v>
+        <v>1.423902417672338</v>
       </c>
       <c r="K23">
-        <v>0.4254684057916713</v>
+        <v>1.885859960806327</v>
       </c>
       <c r="L23">
-        <v>1.193383380108877</v>
+        <v>5.289591198320427</v>
       </c>
       <c r="M23">
-        <v>0.7509397025163743</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="N23">
-        <v>0.01339145285219112</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O23">
-        <v>0.05565566771840942</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P23">
-        <v>5.576710630607356</v>
+        <v>24.71839306539477</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1520,49 +1520,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.2135083954174906</v>
+        <v>0.9463615364450936</v>
       </c>
       <c r="C24">
-        <v>1.628893994472799</v>
+        <v>7.219962570095645</v>
       </c>
       <c r="D24">
-        <v>0.0005899784841715236</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E24">
-        <v>0.05611746213002901</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F24">
-        <v>0.2825972621615657</v>
+        <v>1.252593270121535</v>
       </c>
       <c r="G24">
-        <v>0.5104613660466873</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H24">
-        <v>0.1061586106600353</v>
+        <v>0.4705408688715076</v>
       </c>
       <c r="I24">
-        <v>0.786806788261423</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="J24">
-        <v>0.3512292630258433</v>
+        <v>1.556799976655089</v>
       </c>
       <c r="K24">
-        <v>0.4651787903322273</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="L24">
-        <v>0.7232626546114402</v>
+        <v>3.205812847466926</v>
       </c>
       <c r="M24">
-        <v>0.455114971222045</v>
+        <v>2.017266358930146</v>
       </c>
       <c r="N24">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O24">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P24">
-        <v>5.607538385053997</v>
+        <v>24.85503500402312</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1570,49 +1570,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.2158741394110363</v>
+        <v>0.9568475368489167</v>
       </c>
       <c r="C25">
-        <v>1.646942681392164</v>
+        <v>7.299962155359864</v>
       </c>
       <c r="D25">
-        <v>0.0006555316490794707</v>
+        <v>0.002905599741865762</v>
       </c>
       <c r="E25">
-        <v>0.06235273570003222</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="F25">
-        <v>0.2260778097292526</v>
+        <v>1.002074616097228</v>
       </c>
       <c r="G25">
-        <v>0.4083690928373497</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="H25">
-        <v>0.0726348388726557</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I25">
-        <v>0.5383414867051844</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J25">
-        <v>0.265563589117101</v>
+        <v>1.177092665275799</v>
       </c>
       <c r="K25">
-        <v>0.3517205487877815</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="L25">
-        <v>1.08489398191716</v>
+        <v>4.808719271200388</v>
       </c>
       <c r="M25">
-        <v>0.6826724568330677</v>
+        <v>3.025899538395219</v>
       </c>
       <c r="N25">
-        <v>0.01606974342262935</v>
+        <v>0.07122805192733005</v>
       </c>
       <c r="O25">
-        <v>0.06678680126209131</v>
+        <v>0.2960279839725128</v>
       </c>
       <c r="P25">
-        <v>5.638955437636585</v>
+        <v>24.99428896682162</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1620,49 +1620,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.190442391480421</v>
+        <v>0.844123032507812</v>
       </c>
       <c r="C26">
-        <v>1.452919297008978</v>
+        <v>6.439966613769521</v>
       </c>
       <c r="D26">
-        <v>0.001376616463066888</v>
+        <v>0.006101759457918099</v>
       </c>
       <c r="E26">
-        <v>0.1309407449700677</v>
+        <v>0.5803860047321919</v>
       </c>
       <c r="F26">
-        <v>0.4069400575126547</v>
+        <v>1.803734308975009</v>
       </c>
       <c r="G26">
-        <v>0.7350643671072294</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="H26">
-        <v>0.07822213417055232</v>
+        <v>0.3467143244316371</v>
       </c>
       <c r="I26">
-        <v>0.5797523702978908</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="J26">
-        <v>0.4711612064980825</v>
+        <v>2.088390212586095</v>
       </c>
       <c r="K26">
-        <v>0.6240203284944512</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="L26">
-        <v>1.44652530922288</v>
+        <v>6.411625694933852</v>
       </c>
       <c r="M26">
-        <v>0.9102299424440899</v>
+        <v>4.034532717860292</v>
       </c>
       <c r="N26">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O26">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P26">
-        <v>7.055213613898605</v>
+        <v>31.271757639983</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1670,49 +1670,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.1644192075514193</v>
+        <v>0.728777028065751</v>
       </c>
       <c r="C27">
-        <v>1.254383740895949</v>
+        <v>5.559971175863128</v>
       </c>
       <c r="D27">
-        <v>0.001376616463066888</v>
+        <v>0.006101759457918099</v>
       </c>
       <c r="E27">
-        <v>0.1309407449700677</v>
+        <v>0.5803860047321919</v>
       </c>
       <c r="F27">
-        <v>0.2939011526480285</v>
+        <v>1.302697000926396</v>
       </c>
       <c r="G27">
-        <v>0.5308798206885547</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="H27">
-        <v>0.04749201003212105</v>
+        <v>0.2105051255477798</v>
       </c>
       <c r="I27">
-        <v>0.3519925105380051</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="J27">
-        <v>0.5525435967113876</v>
+        <v>2.449112158396421</v>
       </c>
       <c r="K27">
-        <v>0.7318056579616747</v>
+        <v>3.243679132586882</v>
       </c>
       <c r="L27">
-        <v>1.012567716456017</v>
+        <v>4.488137986453697</v>
       </c>
       <c r="M27">
-        <v>0.6371609597108631</v>
+        <v>2.824172902502204</v>
       </c>
       <c r="N27">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O27">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P27">
-        <v>5.723273158741275</v>
+        <v>25.36802156847484</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1720,49 +1720,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.1865980574909094</v>
+        <v>0.8270832818515983</v>
       </c>
       <c r="C28">
-        <v>1.423590180765008</v>
+        <v>6.309967287715169</v>
       </c>
       <c r="D28">
-        <v>0.001901041782330465</v>
+        <v>0.008426239251410707</v>
       </c>
       <c r="E28">
-        <v>0.1808229335300934</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="F28">
-        <v>0.2939011526480285</v>
+        <v>1.302697000926396</v>
       </c>
       <c r="G28">
-        <v>0.5308798206885547</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="H28">
-        <v>0.06425389592581082</v>
+        <v>0.2848010522117021</v>
       </c>
       <c r="I28">
-        <v>0.4762251613161247</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="J28">
-        <v>0.4283283695437115</v>
+        <v>1.89853655689645</v>
       </c>
       <c r="K28">
-        <v>0.5672912077222284</v>
+        <v>2.514479947741769</v>
       </c>
       <c r="L28">
-        <v>1.44652530922288</v>
+        <v>6.411625694933852</v>
       </c>
       <c r="M28">
-        <v>0.9102299424440899</v>
+        <v>4.034532717860292</v>
       </c>
       <c r="N28">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O28">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P28">
-        <v>6.538165921308011</v>
+        <v>28.9799786782301</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1770,49 +1770,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.1700378495360902</v>
+        <v>0.7536812790248323</v>
       </c>
       <c r="C29">
-        <v>1.297249372329444</v>
+        <v>5.749970190865643</v>
       </c>
       <c r="D29">
-        <v>0.001638829122698676</v>
+        <v>0.007263999354664404</v>
       </c>
       <c r="E29">
-        <v>0.1558818392500806</v>
+        <v>0.690935719919276</v>
       </c>
       <c r="F29">
-        <v>0.3165089336209537</v>
+        <v>1.402904462536119</v>
       </c>
       <c r="G29">
-        <v>0.5717167299722897</v>
+        <v>2.534095776093392</v>
       </c>
       <c r="H29">
-        <v>0.04749201003212105</v>
+        <v>0.2105051255477798</v>
       </c>
       <c r="I29">
-        <v>0.3519925105380051</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="J29">
-        <v>0.3512292630258433</v>
+        <v>1.556799976655089</v>
       </c>
       <c r="K29">
-        <v>0.4651787903322273</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="L29">
-        <v>0.6147732564197246</v>
+        <v>2.724940920346885</v>
       </c>
       <c r="M29">
-        <v>0.3868477255387384</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="N29">
-        <v>0.008034871711314675</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O29">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P29">
-        <v>4.771975382060578</v>
+        <v>21.15145845021445</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1820,49 +1820,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.1718121575312494</v>
+        <v>0.7615457793276995</v>
       </c>
       <c r="C30">
-        <v>1.310785887518968</v>
+        <v>5.809969879813808</v>
       </c>
       <c r="D30">
-        <v>0.0009832974736192059</v>
+        <v>0.004358399612798641</v>
       </c>
       <c r="E30">
-        <v>0.09352910355004836</v>
+        <v>0.4145614319515656</v>
       </c>
       <c r="F30">
-        <v>0.2825972621615657</v>
+        <v>1.252593270121535</v>
       </c>
       <c r="G30">
-        <v>0.5104613660466873</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H30">
-        <v>0.04190471473422445</v>
+        <v>0.1857398166598056</v>
       </c>
       <c r="I30">
-        <v>0.3105816269452986</v>
+        <v>1.376632076189973</v>
       </c>
       <c r="J30">
-        <v>0.4283283695437115</v>
+        <v>1.89853655689645</v>
       </c>
       <c r="K30">
-        <v>0.5672912077222284</v>
+        <v>2.514479947741769</v>
       </c>
       <c r="L30">
-        <v>1.193383380108877</v>
+        <v>5.289591198320427</v>
       </c>
       <c r="M30">
-        <v>0.7509397025163743</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="N30">
-        <v>0.0107131622817529</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O30">
-        <v>0.04452453417472754</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P30">
-        <v>5.717835772309333</v>
+        <v>25.34392072050624</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1870,49 +1870,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.1724035935296359</v>
+        <v>0.7641672794286564</v>
       </c>
       <c r="C31">
-        <v>1.31529805924881</v>
+        <v>5.829969776129863</v>
       </c>
       <c r="D31">
-        <v>0.001311063298158941</v>
+        <v>0.005811199483731523</v>
       </c>
       <c r="E31">
-        <v>0.1247054714000644</v>
+        <v>0.5527485759354208</v>
       </c>
       <c r="F31">
-        <v>0.3617244955668044</v>
+        <v>1.603319385755564</v>
       </c>
       <c r="G31">
-        <v>0.6533905485397595</v>
+        <v>2.896109458392448</v>
       </c>
       <c r="H31">
-        <v>0.04469836238317274</v>
+        <v>0.1981224711037927</v>
       </c>
       <c r="I31">
-        <v>0.3312870687416518</v>
+        <v>1.468407547935971</v>
       </c>
       <c r="J31">
-        <v>0.5011441923661424</v>
+        <v>2.221287771568848</v>
       </c>
       <c r="K31">
-        <v>0.6637307130350072</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="L31">
-        <v>0.7594257873420127</v>
+        <v>3.366103489840271</v>
       </c>
       <c r="M31">
-        <v>0.4778707197831473</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="N31">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O31">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P31">
-        <v>5.434608923462608</v>
+        <v>24.08853684994237</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1920,49 +1920,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.1803879795078522</v>
+        <v>0.7995575307915606</v>
       </c>
       <c r="C32">
-        <v>1.376212377601672</v>
+        <v>6.0999683763966</v>
       </c>
       <c r="D32">
-        <v>0.001507722792882782</v>
+        <v>0.006682879406291252</v>
       </c>
       <c r="E32">
-        <v>0.1434112921100741</v>
+        <v>0.6356608623257338</v>
       </c>
       <c r="F32">
-        <v>0.2825972621615657</v>
+        <v>1.252593270121535</v>
       </c>
       <c r="G32">
-        <v>0.5104613660466873</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H32">
-        <v>0.05866660062791421</v>
+        <v>0.2600357433237279</v>
       </c>
       <c r="I32">
-        <v>0.4348142777234182</v>
+        <v>1.927284906665961</v>
       </c>
       <c r="J32">
-        <v>0.5011441923661424</v>
+        <v>2.221287771568848</v>
       </c>
       <c r="K32">
-        <v>0.6637307130350072</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="L32">
-        <v>0.8317520528031563</v>
+        <v>3.686684774586964</v>
       </c>
       <c r="M32">
-        <v>0.5233822169053518</v>
+        <v>2.319856312769667</v>
       </c>
       <c r="N32">
-        <v>0.008034871711314675</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O32">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P32">
-        <v>5.549496326024085</v>
+        <v>24.59776749913378</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1970,49 +1970,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.2055240094392742</v>
+        <v>0.9109712850821887</v>
       </c>
       <c r="C33">
-        <v>1.567979676119937</v>
+        <v>6.94996396982891</v>
       </c>
       <c r="D33">
-        <v>0.001048850638527153</v>
+        <v>0.004648959586985218</v>
       </c>
       <c r="E33">
-        <v>0.09976437712005157</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="F33">
-        <v>0.4521556194585052</v>
+        <v>2.004149232194456</v>
       </c>
       <c r="G33">
-        <v>0.8167381856746995</v>
+        <v>3.62013682299056</v>
       </c>
       <c r="H33">
-        <v>0.06704754357475912</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I33">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J33">
-        <v>0.4668779228026453</v>
+        <v>2.069404847017131</v>
       </c>
       <c r="K33">
-        <v>0.618347416417229</v>
+        <v>2.740783143038528</v>
       </c>
       <c r="L33">
-        <v>0.7955889200725846</v>
+        <v>3.526394132213617</v>
       </c>
       <c r="M33">
-        <v>0.5006264683442494</v>
+        <v>2.21899299482316</v>
       </c>
       <c r="N33">
-        <v>0.008034871711314675</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O33">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P33">
-        <v>6.1300578651173</v>
+        <v>27.17106729403344</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2020,49 +2020,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.2501774273174474</v>
+        <v>1.108894542704361</v>
       </c>
       <c r="C34">
-        <v>1.908648641722974</v>
+        <v>8.459956141691018</v>
       </c>
       <c r="D34">
-        <v>0.001573275957790729</v>
+        <v>0.006973439380477828</v>
       </c>
       <c r="E34">
-        <v>0.1496465656800773</v>
+        <v>0.6632982911225049</v>
       </c>
       <c r="F34">
-        <v>0.2825972621615657</v>
+        <v>1.252593270121535</v>
       </c>
       <c r="G34">
-        <v>0.5104613660466873</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H34">
-        <v>0.06146024827686252</v>
+        <v>0.2724183977677149</v>
       </c>
       <c r="I34">
-        <v>0.4555197195197714</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="J34">
-        <v>0.4069119510665258</v>
+        <v>1.803609729051628</v>
       </c>
       <c r="K34">
-        <v>0.5389266473361169</v>
+        <v>2.388755950354681</v>
       </c>
       <c r="L34">
-        <v>0.5786101236891524</v>
+        <v>2.564650277973541</v>
       </c>
       <c r="M34">
-        <v>0.3640919769776361</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="N34">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O34">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P34">
-        <v>5.522434629866726</v>
+        <v>24.47781835940928</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2070,49 +2070,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.2442630673335835</v>
+        <v>1.082679541694802</v>
       </c>
       <c r="C35">
-        <v>1.863526924424559</v>
+        <v>8.259957178530476</v>
       </c>
       <c r="D35">
-        <v>0.0004588721543556294</v>
+        <v>0.002033919819306034</v>
       </c>
       <c r="E35">
-        <v>0.04364691499002256</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="F35">
-        <v>0.305205043134491</v>
+        <v>1.352800731731257</v>
       </c>
       <c r="G35">
-        <v>0.5512982753304221</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="H35">
-        <v>0.0726348388726557</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I35">
-        <v>0.5383414867051844</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J35">
-        <v>0.2141641847718557</v>
+        <v>0.949268278448225</v>
       </c>
       <c r="K35">
-        <v>0.2836456038611142</v>
+        <v>1.257239973870885</v>
       </c>
       <c r="L35">
-        <v>0.3616313273057201</v>
+        <v>1.602906423733463</v>
       </c>
       <c r="M35">
-        <v>0.2275574856110225</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="N35">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O35">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P35">
-        <v>4.733992872723226</v>
+        <v>20.98310354396241</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2120,49 +2120,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.2152827034126497</v>
+        <v>0.9542260367479611</v>
       </c>
       <c r="C36">
-        <v>1.642430509662323</v>
+        <v>7.279962259043809</v>
       </c>
       <c r="D36">
-        <v>0.0007866379788953647</v>
+        <v>0.003486719690238914</v>
       </c>
       <c r="E36">
-        <v>0.07482328284003867</v>
+        <v>0.3316491455612525</v>
       </c>
       <c r="F36">
-        <v>0.2147739192427899</v>
+        <v>0.9519708852923661</v>
       </c>
       <c r="G36">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H36">
-        <v>0.09777766771319035</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I36">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J36">
-        <v>0.1541982130357361</v>
+        <v>0.6834731604827222</v>
       </c>
       <c r="K36">
-        <v>0.2042248347800022</v>
+        <v>0.9052127811870367</v>
       </c>
       <c r="L36">
-        <v>0.6147732564197246</v>
+        <v>2.724940920346885</v>
       </c>
       <c r="M36">
-        <v>0.3868477255387384</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="N36">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O36">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P36">
-        <v>4.746178699920175</v>
+        <v>21.03711639964617</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2170,49 +2170,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.1691506955385104</v>
+        <v>0.7497490288733983</v>
       </c>
       <c r="C37">
-        <v>1.290481114734682</v>
+        <v>5.719970346391564</v>
       </c>
       <c r="D37">
-        <v>0.0003933189894476823</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E37">
-        <v>0.03741164142001933</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F37">
-        <v>0.1695583572969395</v>
+        <v>0.7515559620729207</v>
       </c>
       <c r="G37">
-        <v>0.3062768196280122</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="H37">
-        <v>0.07822213417055232</v>
+        <v>0.3467143244316371</v>
       </c>
       <c r="I37">
-        <v>0.5797523702978908</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="J37">
-        <v>0.1370650782539876</v>
+        <v>0.6075316982068641</v>
       </c>
       <c r="K37">
-        <v>0.1815331864711131</v>
+        <v>0.8046335832773662</v>
       </c>
       <c r="L37">
-        <v>0.3254681945751482</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M37">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N37">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O37">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P37">
-        <v>3.493924072540343</v>
+        <v>15.48658237558423</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2220,43 +2220,43 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.132777381637747</v>
+        <v>0.5885267726646078</v>
       </c>
       <c r="C38">
-        <v>1.012982553349427</v>
+        <v>4.489976722954217</v>
       </c>
       <c r="D38">
-        <v>0.0005899784841715236</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E38">
-        <v>0.05611746213002901</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F38">
-        <v>0.1582544668104768</v>
+        <v>0.7014522312680597</v>
       </c>
       <c r="G38">
-        <v>0.2858583649861449</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="H38">
-        <v>0.08939672476634548</v>
+        <v>0.3962449422075854</v>
       </c>
       <c r="I38">
-        <v>0.6625741374833036</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="J38">
-        <v>0.08994895760417938</v>
+        <v>0.3986926769482546</v>
       </c>
       <c r="K38">
-        <v>0.119131153621668</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="L38">
-        <v>0.2169787963834321</v>
+        <v>0.9617438542400777</v>
       </c>
       <c r="M38">
-        <v>0.1365344913666135</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="P38">
-        <v>2.961144468623539</v>
+        <v>13.12507277984488</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2264,49 +2264,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.08723680976199406</v>
+        <v>0.3866712648910009</v>
       </c>
       <c r="C39">
-        <v>0.665545330151628</v>
+        <v>2.949984706618028</v>
       </c>
       <c r="D39">
-        <v>0.0002622126596317883</v>
+        <v>0.001162239896746305</v>
       </c>
       <c r="E39">
-        <v>0.02494109428001289</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="F39">
-        <v>0.0678233429187758</v>
+        <v>0.3006223848291682</v>
       </c>
       <c r="G39">
-        <v>0.122510727851205</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="H39">
-        <v>0.05028565768106934</v>
+        <v>0.2228877799917668</v>
       </c>
       <c r="I39">
-        <v>0.3726979523343584</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="J39">
-        <v>0.0642492554315567</v>
+        <v>0.2847804835344675</v>
       </c>
       <c r="K39">
-        <v>0.08509368115833427</v>
+        <v>0.3771719921612653</v>
       </c>
       <c r="L39">
-        <v>0.2531419291140042</v>
+        <v>1.122034496613424</v>
       </c>
       <c r="M39">
-        <v>0.1592902399277158</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="N39">
-        <v>0.002678290570438224</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O39">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P39">
-        <v>1.966887657384406</v>
+        <v>8.718096643541694</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2314,43 +2314,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.04524485387655967</v>
+        <v>0.2005447577231292</v>
       </c>
       <c r="C40">
-        <v>0.3451811373328784</v>
+        <v>1.529992068178162</v>
       </c>
       <c r="D40">
-        <v>0.0007210848139874176</v>
+        <v>0.003196159716052338</v>
       </c>
       <c r="E40">
-        <v>0.06858800927003544</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="F40">
-        <v>0.09043112389170109</v>
+        <v>0.4008298464388911</v>
       </c>
       <c r="G40">
-        <v>0.1633476371349399</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H40">
-        <v>0.02234918119158637</v>
+        <v>0.09906123555189636</v>
       </c>
       <c r="I40">
-        <v>0.1656435343708259</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="J40">
-        <v>0.07709910651786805</v>
+        <v>0.3417365802413611</v>
       </c>
       <c r="K40">
-        <v>0.1021124173900011</v>
+        <v>0.4526063905935184</v>
       </c>
       <c r="L40">
-        <v>0.1808156636528601</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M40">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P40">
-        <v>1.375312492248755</v>
+        <v>6.095979695372859</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2358,37 +2358,37 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.03105038991528603</v>
+        <v>0.1376287553001867</v>
       </c>
       <c r="C41">
-        <v>0.2368890158166812</v>
+        <v>1.049994556592857</v>
       </c>
       <c r="D41">
-        <v>0.0003277658245397354</v>
+        <v>0.001452799870932881</v>
       </c>
       <c r="E41">
-        <v>0.03117636785001611</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="F41">
-        <v>0.02260778097292527</v>
+        <v>0.1002074616097228</v>
       </c>
       <c r="G41">
-        <v>0.04083690928373497</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="J41">
-        <v>0.03854955325893403</v>
+        <v>0.1708682901206806</v>
       </c>
       <c r="K41">
-        <v>0.05105620869500056</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="L41">
-        <v>0.1808156636528601</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M41">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P41">
-        <v>0.7470883980754893</v>
+        <v>3.31141884552379</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2396,49 +2396,49 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.02513602993142202</v>
+        <v>0.1114137542906273</v>
       </c>
       <c r="C42">
-        <v>0.1917672985182658</v>
+        <v>0.8499955934323126</v>
       </c>
       <c r="D42">
-        <v>0.0006555316490794707</v>
+        <v>0.002905599741865762</v>
       </c>
       <c r="E42">
-        <v>0.06235273570003222</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="F42">
-        <v>0.04521556194585055</v>
+        <v>0.2004149232194455</v>
       </c>
       <c r="G42">
-        <v>0.08167381856746994</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="H42">
-        <v>0.002793647648948296</v>
+        <v>0.01238265444398704</v>
       </c>
       <c r="I42">
-        <v>0.02070544179635324</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="J42">
-        <v>0.05139940434524536</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K42">
-        <v>0.06807494492666741</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L42">
-        <v>0.1446525309222881</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M42">
-        <v>0.09102299424440903</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="N42">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O42">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P42">
-        <v>0.8130687884242718</v>
+        <v>3.603872467610284</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2446,37 +2446,37 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.01389874596208041</v>
+        <v>0.06160525237246452</v>
       </c>
       <c r="C43">
-        <v>0.1060360356512763</v>
+        <v>0.4699975634272788</v>
       </c>
       <c r="D43">
-        <v>0.0001966594947238412</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E43">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F43">
-        <v>0.04521556194585055</v>
+        <v>0.2004149232194455</v>
       </c>
       <c r="G43">
-        <v>0.08167381856746994</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="J43">
-        <v>0.05568268804068247</v>
+        <v>0.2468097523965385</v>
       </c>
       <c r="K43">
-        <v>0.07374785700388971</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="L43">
-        <v>0.2531419291140042</v>
+        <v>1.122034496613424</v>
       </c>
       <c r="M43">
-        <v>0.1592902399277158</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="P43">
-        <v>0.8075893564177028</v>
+        <v>3.579585255473061</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2484,43 +2484,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.0136030279628872</v>
+        <v>0.06029450232198658</v>
       </c>
       <c r="C44">
-        <v>0.1037799497863555</v>
+        <v>0.4599976152692518</v>
       </c>
       <c r="D44">
-        <v>0.0001966594947238412</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E44">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F44">
-        <v>0.0339116714593879</v>
+        <v>0.1503111924145841</v>
       </c>
       <c r="G44">
-        <v>0.06125536392560248</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="H44">
-        <v>0.01117459059579319</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I44">
-        <v>0.08282176718541295</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J44">
-        <v>0.03426626956349691</v>
+        <v>0.151882924551716</v>
       </c>
       <c r="K44">
-        <v>0.04538329661777827</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="L44">
-        <v>0.07232626546114405</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M44">
-        <v>0.04551149712220452</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="P44">
-        <v>0.5229361798847966</v>
+        <v>2.317879283813693</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2528,43 +2528,43 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.03548615990318405</v>
+        <v>0.1572900060573562</v>
       </c>
       <c r="C45">
-        <v>0.2707303037904928</v>
+        <v>1.199993778963265</v>
       </c>
       <c r="D45">
-        <v>6.555316490794707E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E45">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F45">
-        <v>0.04521556194585055</v>
+        <v>0.2004149232194455</v>
       </c>
       <c r="G45">
-        <v>0.08167381856746994</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="H45">
-        <v>0.005587295297896593</v>
+        <v>0.02476530888797409</v>
       </c>
       <c r="I45">
-        <v>0.04141088359270648</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="J45">
-        <v>0.05568268804068247</v>
+        <v>0.2468097523965385</v>
       </c>
       <c r="K45">
-        <v>0.07374785700388971</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="L45">
-        <v>0.07232626546114405</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M45">
-        <v>0.04551149712220452</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="P45">
-        <v>0.7336731574604323</v>
+        <v>3.251956697932726</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2572,43 +2572,43 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.1023184277208473</v>
+        <v>0.4535195174653773</v>
       </c>
       <c r="C46">
-        <v>0.7806057092625872</v>
+        <v>3.459982062677413</v>
       </c>
       <c r="D46">
-        <v>0.0005244253192635765</v>
+        <v>0.002324479793492609</v>
       </c>
       <c r="E46">
-        <v>0.04988218856002578</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="F46">
-        <v>0.1695583572969395</v>
+        <v>0.7515559620729207</v>
       </c>
       <c r="G46">
-        <v>0.3062768196280122</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="H46">
-        <v>0.02514282884053467</v>
+        <v>0.1114438899958834</v>
       </c>
       <c r="I46">
-        <v>0.1863489761671792</v>
+        <v>0.8259792457139835</v>
       </c>
       <c r="J46">
-        <v>0.1798979152083588</v>
+        <v>0.7973853538965091</v>
       </c>
       <c r="K46">
-        <v>0.2382623072433359</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="L46">
-        <v>0.5786101236891524</v>
+        <v>2.564650277973541</v>
       </c>
       <c r="M46">
-        <v>0.3640919769776361</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="P46">
-        <v>2.981520055913873</v>
+        <v>13.21538619378041</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2616,49 +2616,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.1620534635578738</v>
+        <v>0.7182910276619268</v>
       </c>
       <c r="C47">
-        <v>1.236335053976584</v>
+        <v>5.479971590598911</v>
       </c>
       <c r="D47">
-        <v>0.0009177443087112589</v>
+        <v>0.004067839638612067</v>
       </c>
       <c r="E47">
-        <v>0.08729382998004512</v>
+        <v>0.3869240031547946</v>
       </c>
       <c r="F47">
-        <v>0.1808622477834022</v>
+        <v>0.8016596928777822</v>
       </c>
       <c r="G47">
-        <v>0.3266952742698798</v>
+        <v>1.448054729196224</v>
       </c>
       <c r="H47">
-        <v>0.09777766771319035</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I47">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J47">
-        <v>0.3212462771577835</v>
+        <v>1.423902417672338</v>
       </c>
       <c r="K47">
-        <v>0.4254684057916713</v>
+        <v>1.885859960806327</v>
       </c>
       <c r="L47">
-        <v>1.193383380108877</v>
+        <v>5.289591198320427</v>
       </c>
       <c r="M47">
-        <v>0.7509397025163743</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="N47">
-        <v>0.01339145285219112</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O47">
-        <v>0.05565566771840942</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P47">
-        <v>5.576710630607356</v>
+        <v>24.71839306539477</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2666,49 +2666,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.2135083954174906</v>
+        <v>0.9463615364450936</v>
       </c>
       <c r="C48">
-        <v>1.628893994472799</v>
+        <v>7.219962570095645</v>
       </c>
       <c r="D48">
-        <v>0.0005899784841715236</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E48">
-        <v>0.05611746213002901</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F48">
-        <v>0.2825972621615657</v>
+        <v>1.252593270121535</v>
       </c>
       <c r="G48">
-        <v>0.5104613660466873</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H48">
-        <v>0.1061586106600353</v>
+        <v>0.4705408688715076</v>
       </c>
       <c r="I48">
-        <v>0.786806788261423</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="J48">
-        <v>0.3512292630258433</v>
+        <v>1.556799976655089</v>
       </c>
       <c r="K48">
-        <v>0.4651787903322273</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="L48">
-        <v>0.7232626546114402</v>
+        <v>3.205812847466926</v>
       </c>
       <c r="M48">
-        <v>0.455114971222045</v>
+        <v>2.017266358930146</v>
       </c>
       <c r="N48">
-        <v>0.005356581140876449</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O48">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P48">
-        <v>5.607538385053997</v>
+        <v>24.85503500402312</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2716,49 +2716,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.2158741394110363</v>
+        <v>0.9568475368489167</v>
       </c>
       <c r="C49">
-        <v>1.646942681392164</v>
+        <v>7.299962155359864</v>
       </c>
       <c r="D49">
-        <v>0.0006555316490794707</v>
+        <v>0.002905599741865762</v>
       </c>
       <c r="E49">
-        <v>0.06235273570003222</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="F49">
-        <v>0.2260778097292526</v>
+        <v>1.002074616097228</v>
       </c>
       <c r="G49">
-        <v>0.4083690928373497</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="H49">
-        <v>0.0726348388726557</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I49">
-        <v>0.5383414867051844</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J49">
-        <v>0.265563589117101</v>
+        <v>1.177092665275799</v>
       </c>
       <c r="K49">
-        <v>0.3517205487877815</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="L49">
-        <v>1.08489398191716</v>
+        <v>4.808719271200388</v>
       </c>
       <c r="M49">
-        <v>0.6826724568330677</v>
+        <v>3.025899538395219</v>
       </c>
       <c r="N49">
-        <v>0.01606974342262935</v>
+        <v>0.07122805192733005</v>
       </c>
       <c r="O49">
-        <v>0.06678680126209131</v>
+        <v>0.2960279839725128</v>
       </c>
       <c r="P49">
-        <v>5.638955437636585</v>
+        <v>24.99428896682162</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.844123032507812</v>
+        <v>0.187582896112847</v>
       </c>
       <c r="C2">
-        <v>6.439966613769521</v>
+        <v>1.431103691948782</v>
       </c>
       <c r="D2">
-        <v>0.006101759457918099</v>
+        <v>0.001355946546204022</v>
       </c>
       <c r="E2">
-        <v>0.5803860047321919</v>
+        <v>0.1289746677182648</v>
       </c>
       <c r="F2">
-        <v>1.803734308975009</v>
+        <v>0.4008298464388911</v>
       </c>
       <c r="G2">
-        <v>3.258123140691503</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H2">
-        <v>0.3467143244316371</v>
+        <v>0.07704762765147492</v>
       </c>
       <c r="I2">
-        <v>2.569713208887948</v>
+        <v>0.5710473797528773</v>
       </c>
       <c r="J2">
-        <v>2.088390212586095</v>
+        <v>0.4640867139080212</v>
       </c>
       <c r="K2">
-        <v>2.765927942515946</v>
+        <v>0.6146506538924323</v>
       </c>
       <c r="L2">
-        <v>6.411625694933852</v>
+        <v>1.4248057099853</v>
       </c>
       <c r="M2">
-        <v>4.034532717860292</v>
+        <v>0.896562826191176</v>
       </c>
       <c r="N2">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O2">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P2">
-        <v>31.271757639983</v>
+        <v>6.94927947555178</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,43 +530,43 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.9699550373536967</v>
+        <v>0.2155455638563769</v>
       </c>
       <c r="C3">
-        <v>7.399961636940136</v>
+        <v>1.644435919320031</v>
       </c>
       <c r="D3">
-        <v>0.007263999354664404</v>
+        <v>0.001614222078814312</v>
       </c>
       <c r="E3">
-        <v>0.690935719919276</v>
+        <v>0.1535412710931724</v>
       </c>
       <c r="F3">
-        <v>1.202489539316673</v>
+        <v>0.2672198976259273</v>
       </c>
       <c r="G3">
-        <v>2.172082093794335</v>
+        <v>0.4826849097320746</v>
       </c>
       <c r="H3">
-        <v>0.1981224711037927</v>
+        <v>0.04402721580084282</v>
       </c>
       <c r="I3">
-        <v>1.468407547935971</v>
+        <v>0.3263127884302157</v>
       </c>
       <c r="J3">
-        <v>2.619980448517101</v>
+        <v>0.5822178774482448</v>
       </c>
       <c r="K3">
-        <v>3.469982327883641</v>
+        <v>0.7711071839741424</v>
       </c>
       <c r="L3">
-        <v>9.938019827147469</v>
+        <v>2.208448850477215</v>
       </c>
       <c r="M3">
-        <v>6.253525712683452</v>
+        <v>1.389672380596322</v>
       </c>
       <c r="P3">
-        <v>36.39072636195021</v>
+        <v>8.08682808043338</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -574,49 +574,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.7903822804382152</v>
+        <v>0.1756405067640478</v>
       </c>
       <c r="C4">
-        <v>6.02996873929041</v>
+        <v>1.339993053175646</v>
       </c>
       <c r="D4">
-        <v>0.005230079535358371</v>
+        <v>0.001162239896746305</v>
       </c>
       <c r="E4">
-        <v>0.4974737183418786</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="F4">
-        <v>0.9519708852923661</v>
+        <v>0.2115490856205258</v>
       </c>
       <c r="G4">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="H4">
-        <v>0.3343316699876502</v>
+        <v>0.07429592666392228</v>
       </c>
       <c r="I4">
-        <v>2.47793773714195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="J4">
-        <v>2.050419481448166</v>
+        <v>0.4556487736551481</v>
       </c>
       <c r="K4">
-        <v>2.715638343561111</v>
+        <v>0.6034751874580245</v>
       </c>
       <c r="L4">
-        <v>6.571916337307199</v>
+        <v>1.460425852734932</v>
       </c>
       <c r="M4">
-        <v>4.135396035806799</v>
+        <v>0.918976896845955</v>
       </c>
       <c r="N4">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O4">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P4">
-        <v>28.4026489777049</v>
+        <v>6.311699772823308</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -624,49 +624,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.9044175348297988</v>
+        <v>0.2009816744066218</v>
       </c>
       <c r="C5">
-        <v>6.899964229038773</v>
+        <v>1.533325384230839</v>
       </c>
       <c r="D5">
-        <v>0.006973439380477828</v>
+        <v>0.00154965319566174</v>
       </c>
       <c r="E5">
-        <v>0.6632982911225049</v>
+        <v>0.1473996202494456</v>
       </c>
       <c r="F5">
-        <v>1.45300819334098</v>
+        <v>0.3228907096313291</v>
       </c>
       <c r="G5">
-        <v>2.624599196668157</v>
+        <v>0.5832442659262569</v>
       </c>
       <c r="H5">
-        <v>0.2228877799917668</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I5">
-        <v>1.651958491427967</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J5">
-        <v>1.993463384741273</v>
+        <v>0.4429918632758385</v>
       </c>
       <c r="K5">
-        <v>2.640203945128857</v>
+        <v>0.5867119878064129</v>
       </c>
       <c r="L5">
-        <v>4.648428628827042</v>
+        <v>1.032984139739342</v>
       </c>
       <c r="M5">
-        <v>2.925036220448711</v>
+        <v>0.6500080489886025</v>
       </c>
       <c r="N5">
-        <v>0.04748536795155339</v>
+        <v>0.01055230398923408</v>
       </c>
       <c r="O5">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="P5">
-        <v>26.87907669221287</v>
+        <v>5.973128153825082</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -674,49 +674,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.8598520331135481</v>
+        <v>0.1910782295807884</v>
       </c>
       <c r="C6">
-        <v>6.55996599166585</v>
+        <v>1.457770220370189</v>
       </c>
       <c r="D6">
-        <v>0.009588479148157011</v>
+        <v>0.002130773144034891</v>
       </c>
       <c r="E6">
-        <v>0.9120351502934443</v>
+        <v>0.2026744778429876</v>
       </c>
       <c r="F6">
-        <v>1.202489539316673</v>
+        <v>0.2672198976259273</v>
       </c>
       <c r="G6">
-        <v>2.172082093794335</v>
+        <v>0.4826849097320746</v>
       </c>
       <c r="H6">
-        <v>0.2105051255477798</v>
+        <v>0.04677891678839551</v>
       </c>
       <c r="I6">
-        <v>1.560183019681969</v>
+        <v>0.3467073377071043</v>
       </c>
       <c r="J6">
-        <v>1.974478019172308</v>
+        <v>0.4387728931494018</v>
       </c>
       <c r="K6">
-        <v>2.615059145651439</v>
+        <v>0.5811242545892089</v>
       </c>
       <c r="L6">
-        <v>6.251335052560505</v>
+        <v>1.389185567235668</v>
       </c>
       <c r="M6">
-        <v>3.933669399913784</v>
+        <v>0.8741487555363965</v>
       </c>
       <c r="N6">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O6">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P6">
-        <v>28.32245238917643</v>
+        <v>6.293878308705875</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -724,49 +724,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.8428122824573336</v>
+        <v>0.187291618323852</v>
       </c>
       <c r="C7">
-        <v>6.429966665611493</v>
+        <v>1.428881481246999</v>
       </c>
       <c r="D7">
-        <v>0.005520639509544946</v>
+        <v>0.001226808779898877</v>
       </c>
       <c r="E7">
-        <v>0.5251111471386498</v>
+        <v>0.116691366030811</v>
       </c>
       <c r="F7">
-        <v>0.9519708852923661</v>
+        <v>0.2115490856205258</v>
       </c>
       <c r="G7">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="H7">
-        <v>0.2848010522117021</v>
+        <v>0.06328912271371155</v>
       </c>
       <c r="I7">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="J7">
-        <v>2.221287771568848</v>
+        <v>0.493619504793077</v>
       </c>
       <c r="K7">
-        <v>2.94194153885787</v>
+        <v>0.65376478641286</v>
       </c>
       <c r="L7">
-        <v>5.770463125440465</v>
+        <v>1.282325138986771</v>
       </c>
       <c r="M7">
-        <v>3.631079446074262</v>
+        <v>0.8069065435720583</v>
       </c>
       <c r="N7">
-        <v>0.1068420778909951</v>
+        <v>0.0237426839757767</v>
       </c>
       <c r="O7">
-        <v>0.4440419759587692</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P7">
-        <v>27.98623944909077</v>
+        <v>6.219164322020172</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -774,49 +774,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.8126650312963407</v>
+        <v>0.1805922291769647</v>
       </c>
       <c r="C8">
-        <v>6.19996785797687</v>
+        <v>1.37777063510597</v>
       </c>
       <c r="D8">
-        <v>0.008426239251410707</v>
+        <v>0.001872497611424602</v>
       </c>
       <c r="E8">
-        <v>0.8014854351063602</v>
+        <v>0.17810787446808</v>
       </c>
       <c r="F8">
-        <v>1.002074616097228</v>
+        <v>0.2226832480216062</v>
       </c>
       <c r="G8">
-        <v>1.81006841149528</v>
+        <v>0.4022374247767288</v>
       </c>
       <c r="H8">
-        <v>0.2476530888797409</v>
+        <v>0.05503401975105354</v>
       </c>
       <c r="I8">
-        <v>1.835509434919963</v>
+        <v>0.4078909855377696</v>
       </c>
       <c r="J8">
-        <v>2.10737557815506</v>
+        <v>0.4683056840344578</v>
       </c>
       <c r="K8">
-        <v>2.791072741993363</v>
+        <v>0.6202383871096365</v>
       </c>
       <c r="L8">
-        <v>4.808719271200388</v>
+        <v>1.068604282488975</v>
       </c>
       <c r="M8">
-        <v>3.025899538395219</v>
+        <v>0.6724221196433818</v>
       </c>
       <c r="N8">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O8">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P8">
-        <v>25.63454526271715</v>
+        <v>5.696565613937142</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -824,49 +824,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.9109712850821887</v>
+        <v>0.2024380633515974</v>
       </c>
       <c r="C9">
-        <v>6.94996396982891</v>
+        <v>1.544436437739758</v>
       </c>
       <c r="D9">
-        <v>0.004648959586985218</v>
+        <v>0.00103310213044116</v>
       </c>
       <c r="E9">
-        <v>0.4421988607483366</v>
+        <v>0.09826641349963036</v>
       </c>
       <c r="F9">
-        <v>2.004149232194456</v>
+        <v>0.4453664960432125</v>
       </c>
       <c r="G9">
-        <v>3.62013682299056</v>
+        <v>0.8044748495534576</v>
       </c>
       <c r="H9">
-        <v>0.2971837066556891</v>
+        <v>0.06604082370126424</v>
       </c>
       <c r="I9">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="J9">
-        <v>2.069404847017131</v>
+        <v>0.4598677437815845</v>
       </c>
       <c r="K9">
-        <v>2.740783143038528</v>
+        <v>0.6090629206752285</v>
       </c>
       <c r="L9">
-        <v>3.526394132213617</v>
+        <v>0.7836431404919151</v>
       </c>
       <c r="M9">
-        <v>2.21899299482316</v>
+        <v>0.4931095544051468</v>
       </c>
       <c r="N9">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O9">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P9">
-        <v>27.17106729403344</v>
+        <v>6.038014954229653</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -874,49 +874,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.108894542704361</v>
+        <v>0.2464210094898582</v>
       </c>
       <c r="C10">
-        <v>8.459956141691018</v>
+        <v>1.879990253709115</v>
       </c>
       <c r="D10">
-        <v>0.006973439380477828</v>
+        <v>0.00154965319566174</v>
       </c>
       <c r="E10">
-        <v>0.6632982911225049</v>
+        <v>0.1473996202494456</v>
       </c>
       <c r="F10">
-        <v>1.252593270121535</v>
+        <v>0.2783540600270078</v>
       </c>
       <c r="G10">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="H10">
-        <v>0.2724183977677149</v>
+        <v>0.06053742172615888</v>
       </c>
       <c r="I10">
-        <v>2.019060378411959</v>
+        <v>0.4486800840915466</v>
       </c>
       <c r="J10">
-        <v>1.803609729051628</v>
+        <v>0.4008021620114728</v>
       </c>
       <c r="K10">
-        <v>2.388755950354681</v>
+        <v>0.5308346556343735</v>
       </c>
       <c r="L10">
-        <v>2.564650277973541</v>
+        <v>0.5699222839941196</v>
       </c>
       <c r="M10">
-        <v>1.613813087144117</v>
+        <v>0.3586251304764703</v>
       </c>
       <c r="N10">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O10">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P10">
-        <v>24.47781835940928</v>
+        <v>5.43951519097984</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,49 +924,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.082679541694802</v>
+        <v>0.240595453709956</v>
       </c>
       <c r="C11">
-        <v>8.259957178530476</v>
+        <v>1.835546039673439</v>
       </c>
       <c r="D11">
-        <v>0.002033919819306034</v>
+        <v>0.0004519821820680073</v>
       </c>
       <c r="E11">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="F11">
-        <v>1.352800731731257</v>
+        <v>0.3006223848291682</v>
       </c>
       <c r="G11">
-        <v>2.443592355518628</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="H11">
-        <v>0.3219490155436631</v>
+        <v>0.07154422567636959</v>
       </c>
       <c r="I11">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="J11">
-        <v>0.949268278448225</v>
+        <v>0.2109485063218278</v>
       </c>
       <c r="K11">
-        <v>1.257239973870885</v>
+        <v>0.2793866608601966</v>
       </c>
       <c r="L11">
-        <v>1.602906423733463</v>
+        <v>0.3562014274963251</v>
       </c>
       <c r="M11">
-        <v>1.008633179465073</v>
+        <v>0.224140706547794</v>
       </c>
       <c r="N11">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O11">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P11">
-        <v>20.98310354396241</v>
+        <v>4.662911898658313</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,49 +974,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.9542260367479611</v>
+        <v>0.2120502303884357</v>
       </c>
       <c r="C12">
-        <v>7.279962259043809</v>
+        <v>1.617769390898625</v>
       </c>
       <c r="D12">
-        <v>0.003486719690238914</v>
+        <v>0.0007748265978308698</v>
       </c>
       <c r="E12">
-        <v>0.3316491455612525</v>
+        <v>0.07369981012472279</v>
       </c>
       <c r="F12">
-        <v>0.9519708852923661</v>
+        <v>0.2115490856205258</v>
       </c>
       <c r="G12">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="H12">
-        <v>0.4333929055395464</v>
+        <v>0.09630953456434366</v>
       </c>
       <c r="I12">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="J12">
-        <v>0.6834731604827222</v>
+        <v>0.151882924551716</v>
       </c>
       <c r="K12">
-        <v>0.9052127811870367</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="L12">
-        <v>2.724940920346885</v>
+        <v>0.6055424267437527</v>
       </c>
       <c r="M12">
-        <v>1.714676405090624</v>
+        <v>0.3810392011312497</v>
       </c>
       <c r="N12">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O12">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P12">
-        <v>21.03711639964617</v>
+        <v>4.674914755476928</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.7497490288733983</v>
+        <v>0.1666108953051996</v>
       </c>
       <c r="C13">
-        <v>5.719970346391564</v>
+        <v>1.271104521420347</v>
       </c>
       <c r="D13">
-        <v>0.001743359845119457</v>
+        <v>0.0003874132989154349</v>
       </c>
       <c r="E13">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="F13">
-        <v>0.7515559620729207</v>
+        <v>0.1670124360162046</v>
       </c>
       <c r="G13">
-        <v>1.35755130862146</v>
+        <v>0.3016780685825466</v>
       </c>
       <c r="H13">
-        <v>0.3467143244316371</v>
+        <v>0.07704762765147492</v>
       </c>
       <c r="I13">
-        <v>2.569713208887948</v>
+        <v>0.5710473797528773</v>
       </c>
       <c r="J13">
-        <v>0.6075316982068641</v>
+        <v>0.1350070440459698</v>
       </c>
       <c r="K13">
-        <v>0.8046335832773662</v>
+        <v>0.1788074629505258</v>
       </c>
       <c r="L13">
-        <v>1.442615781360116</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M13">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="N13">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O13">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P13">
-        <v>15.48658237558423</v>
+        <v>3.441462750129828</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.5885267726646078</v>
+        <v>0.1307837272588018</v>
       </c>
       <c r="C14">
-        <v>4.489976722954217</v>
+        <v>0.9977726051009373</v>
       </c>
       <c r="D14">
-        <v>0.002615039767679185</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E14">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F14">
-        <v>0.7014522312680597</v>
+        <v>0.1558782736151243</v>
       </c>
       <c r="G14">
-        <v>1.267047888046696</v>
+        <v>0.2815661973437104</v>
       </c>
       <c r="H14">
-        <v>0.3962449422075854</v>
+        <v>0.08805443160168563</v>
       </c>
       <c r="I14">
-        <v>2.936815095871942</v>
+        <v>0.6526255768604313</v>
       </c>
       <c r="J14">
-        <v>0.3986926769482546</v>
+        <v>0.08859837265516766</v>
       </c>
       <c r="K14">
-        <v>0.5280407890257716</v>
+        <v>0.1173423975612825</v>
       </c>
       <c r="L14">
-        <v>0.9617438542400777</v>
+        <v>0.213720856497795</v>
       </c>
       <c r="M14">
-        <v>0.6051799076790437</v>
+        <v>0.1344844239286763</v>
       </c>
       <c r="P14">
-        <v>13.12507277984488</v>
+        <v>2.916682839965527</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,49 +1118,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.3866712648910009</v>
+        <v>0.08592694775355572</v>
       </c>
       <c r="C15">
-        <v>2.949984706618028</v>
+        <v>0.655552157026228</v>
       </c>
       <c r="D15">
-        <v>0.001162239896746305</v>
+        <v>0.0002582755326102899</v>
       </c>
       <c r="E15">
-        <v>0.1105497151870842</v>
+        <v>0.02456660337490759</v>
       </c>
       <c r="F15">
-        <v>0.3006223848291682</v>
+        <v>0.06680497440648182</v>
       </c>
       <c r="G15">
-        <v>0.5430205234485838</v>
+        <v>0.1206712274330187</v>
       </c>
       <c r="H15">
-        <v>0.2228877799917668</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I15">
-        <v>1.651958491427967</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J15">
-        <v>0.2847804835344675</v>
+        <v>0.06328455189654834</v>
       </c>
       <c r="K15">
-        <v>0.3771719921612653</v>
+        <v>0.08381599825805897</v>
       </c>
       <c r="L15">
-        <v>1.122034496613424</v>
+        <v>0.2493409992474274</v>
       </c>
       <c r="M15">
-        <v>0.7060432256255511</v>
+        <v>0.1568984945834558</v>
       </c>
       <c r="N15">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O15">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P15">
-        <v>8.718096643541694</v>
+        <v>1.937354809675931</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1168,43 +1168,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.2005447577231292</v>
+        <v>0.04456550171625092</v>
       </c>
       <c r="C16">
-        <v>1.529992068178162</v>
+        <v>0.339998237372925</v>
       </c>
       <c r="D16">
-        <v>0.003196159716052338</v>
+        <v>0.0007102577146782973</v>
       </c>
       <c r="E16">
-        <v>0.3040117167644815</v>
+        <v>0.06755815928099589</v>
       </c>
       <c r="F16">
-        <v>0.4008298464388911</v>
+        <v>0.0890732992086425</v>
       </c>
       <c r="G16">
-        <v>0.724027364598112</v>
+        <v>0.1608949699106916</v>
       </c>
       <c r="H16">
-        <v>0.09906123555189636</v>
+        <v>0.02201360790042141</v>
       </c>
       <c r="I16">
-        <v>0.7342037739679854</v>
+        <v>0.1631563942151078</v>
       </c>
       <c r="J16">
-        <v>0.3417365802413611</v>
+        <v>0.07594146227585802</v>
       </c>
       <c r="K16">
-        <v>0.4526063905935184</v>
+        <v>0.1005791979096708</v>
       </c>
       <c r="L16">
-        <v>0.8014532118667315</v>
+        <v>0.1781007137481626</v>
       </c>
       <c r="M16">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="P16">
-        <v>6.095979695372859</v>
+        <v>1.354662154527302</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1212,37 +1212,37 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1376287553001867</v>
+        <v>0.03058416784448594</v>
       </c>
       <c r="C17">
-        <v>1.049994556592857</v>
+        <v>0.2333321236873015</v>
       </c>
       <c r="D17">
-        <v>0.001452799870932881</v>
+        <v>0.0003228444157628624</v>
       </c>
       <c r="E17">
-        <v>0.1381871439838552</v>
+        <v>0.03070825421863449</v>
       </c>
       <c r="F17">
-        <v>0.1002074616097228</v>
+        <v>0.02226832480216063</v>
       </c>
       <c r="G17">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="J17">
-        <v>0.1708682901206806</v>
+        <v>0.03797073113792901</v>
       </c>
       <c r="K17">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="L17">
-        <v>0.8014532118667315</v>
+        <v>0.1781007137481626</v>
       </c>
       <c r="M17">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="P17">
-        <v>3.31141884552379</v>
+        <v>0.7358708545608422</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1250,49 +1250,49 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.1114137542906273</v>
+        <v>0.02475861206458385</v>
       </c>
       <c r="C18">
-        <v>0.8499955934323126</v>
+        <v>0.188887909651625</v>
       </c>
       <c r="D18">
-        <v>0.002905599741865762</v>
+        <v>0.0006456888315257247</v>
       </c>
       <c r="E18">
-        <v>0.2763742879677104</v>
+        <v>0.06141650843726898</v>
       </c>
       <c r="F18">
-        <v>0.2004149232194455</v>
+        <v>0.04453664960432125</v>
       </c>
       <c r="G18">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="H18">
-        <v>0.01238265444398704</v>
+        <v>0.002751700987552676</v>
       </c>
       <c r="I18">
-        <v>0.09177547174599818</v>
+        <v>0.02039454927688848</v>
       </c>
       <c r="J18">
-        <v>0.227824386827574</v>
+        <v>0.05062764151723868</v>
       </c>
       <c r="K18">
-        <v>0.3017375937290123</v>
+        <v>0.06705279860644717</v>
       </c>
       <c r="L18">
-        <v>0.6411625694933853</v>
+        <v>0.1424805709985299</v>
       </c>
       <c r="M18">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="N18">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O18">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P18">
-        <v>3.603872467610284</v>
+        <v>0.8008605483578408</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1300,37 +1300,37 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.06160525237246452</v>
+        <v>0.0136900560827699</v>
       </c>
       <c r="C19">
-        <v>0.4699975634272788</v>
+        <v>0.1044439029838397</v>
       </c>
       <c r="D19">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E19">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="F19">
-        <v>0.2004149232194455</v>
+        <v>0.04453664960432125</v>
       </c>
       <c r="G19">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="J19">
-        <v>0.2468097523965385</v>
+        <v>0.05484661164367522</v>
       </c>
       <c r="K19">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="L19">
-        <v>1.122034496613424</v>
+        <v>0.2493409992474274</v>
       </c>
       <c r="M19">
-        <v>0.7060432256255511</v>
+        <v>0.1568984945834558</v>
       </c>
       <c r="P19">
-        <v>3.579585255473061</v>
+        <v>0.7954633901051247</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1338,43 +1338,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.06029450232198658</v>
+        <v>0.01339877829377479</v>
       </c>
       <c r="C20">
-        <v>0.4599976152692518</v>
+        <v>0.1022216922820559</v>
       </c>
       <c r="D20">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E20">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="F20">
-        <v>0.1503111924145841</v>
+        <v>0.03340248720324091</v>
       </c>
       <c r="G20">
-        <v>0.2715102617242919</v>
+        <v>0.06033561371650933</v>
       </c>
       <c r="H20">
-        <v>0.04953061777594818</v>
+        <v>0.0110068039502107</v>
       </c>
       <c r="I20">
-        <v>0.3671018869839927</v>
+        <v>0.08157819710755392</v>
       </c>
       <c r="J20">
-        <v>0.151882924551716</v>
+        <v>0.03375176101149245</v>
       </c>
       <c r="K20">
-        <v>0.2011583958193416</v>
+        <v>0.04470186573763146</v>
       </c>
       <c r="L20">
-        <v>0.3205812847466927</v>
+        <v>0.07124028549926495</v>
       </c>
       <c r="M20">
-        <v>0.2017266358930146</v>
+        <v>0.04482814130955878</v>
       </c>
       <c r="P20">
-        <v>2.317879283813693</v>
+        <v>0.5150842852919316</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1382,43 +1382,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.1572900060573562</v>
+        <v>0.0349533346794125</v>
       </c>
       <c r="C21">
-        <v>1.199993778963265</v>
+        <v>0.2666652842140589</v>
       </c>
       <c r="D21">
-        <v>0.0002905599741865762</v>
+        <v>6.456888315257249E-05</v>
       </c>
       <c r="E21">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="F21">
-        <v>0.2004149232194455</v>
+        <v>0.04453664960432125</v>
       </c>
       <c r="G21">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="H21">
-        <v>0.02476530888797409</v>
+        <v>0.005503401975105352</v>
       </c>
       <c r="I21">
-        <v>0.1835509434919964</v>
+        <v>0.04078909855377696</v>
       </c>
       <c r="J21">
-        <v>0.2468097523965385</v>
+        <v>0.05484661164367522</v>
       </c>
       <c r="K21">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="L21">
-        <v>0.3205812847466927</v>
+        <v>0.07124028549926495</v>
       </c>
       <c r="M21">
-        <v>0.2017266358930146</v>
+        <v>0.04482814130955878</v>
       </c>
       <c r="P21">
-        <v>3.251956697932726</v>
+        <v>0.7226570439850504</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1426,43 +1426,43 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.4535195174653773</v>
+        <v>0.100782114992306</v>
       </c>
       <c r="C22">
-        <v>3.459982062677413</v>
+        <v>0.7688849028172032</v>
       </c>
       <c r="D22">
-        <v>0.002324479793492609</v>
+        <v>0.0005165510652205799</v>
       </c>
       <c r="E22">
-        <v>0.2210994303741683</v>
+        <v>0.04913320674981518</v>
       </c>
       <c r="F22">
-        <v>0.7515559620729207</v>
+        <v>0.1670124360162046</v>
       </c>
       <c r="G22">
-        <v>1.35755130862146</v>
+        <v>0.3016780685825466</v>
       </c>
       <c r="H22">
-        <v>0.1114438899958834</v>
+        <v>0.02476530888797409</v>
       </c>
       <c r="I22">
-        <v>0.8259792457139835</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="J22">
-        <v>0.7973853538965091</v>
+        <v>0.1771967453103353</v>
       </c>
       <c r="K22">
-        <v>1.056081578051543</v>
+        <v>0.2346847951225651</v>
       </c>
       <c r="L22">
-        <v>2.564650277973541</v>
+        <v>0.5699222839941196</v>
       </c>
       <c r="M22">
-        <v>1.613813087144117</v>
+        <v>0.3586251304764703</v>
       </c>
       <c r="P22">
-        <v>13.21538619378041</v>
+        <v>2.936752487506757</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1470,49 +1470,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.7182910276619268</v>
+        <v>0.1596202283693171</v>
       </c>
       <c r="C23">
-        <v>5.479971590598911</v>
+        <v>1.217771464577536</v>
       </c>
       <c r="D23">
-        <v>0.004067839638612067</v>
+        <v>0.0009039643641360146</v>
       </c>
       <c r="E23">
-        <v>0.3869240031547946</v>
+        <v>0.08598311181217656</v>
       </c>
       <c r="F23">
-        <v>0.8016596928777822</v>
+        <v>0.178146598417285</v>
       </c>
       <c r="G23">
-        <v>1.448054729196224</v>
+        <v>0.3217899398213832</v>
       </c>
       <c r="H23">
-        <v>0.4333929055395464</v>
+        <v>0.09630953456434366</v>
       </c>
       <c r="I23">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="J23">
-        <v>1.423902417672338</v>
+        <v>0.3164227594827417</v>
       </c>
       <c r="K23">
-        <v>1.885859960806327</v>
+        <v>0.4190799912902949</v>
       </c>
       <c r="L23">
-        <v>5.289591198320427</v>
+        <v>1.175464710737872</v>
       </c>
       <c r="M23">
-        <v>3.32848949223474</v>
+        <v>0.73966433160772</v>
       </c>
       <c r="N23">
-        <v>0.05935670993944172</v>
+        <v>0.01319037998654261</v>
       </c>
       <c r="O23">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="P23">
-        <v>24.71839306539477</v>
+        <v>5.492976236754394</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1520,49 +1520,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.9463615364450936</v>
+        <v>0.2103025636544651</v>
       </c>
       <c r="C24">
-        <v>7.219962570095645</v>
+        <v>1.60443612668792</v>
       </c>
       <c r="D24">
-        <v>0.002615039767679185</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E24">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F24">
-        <v>1.252593270121535</v>
+        <v>0.2783540600270078</v>
       </c>
       <c r="G24">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="H24">
-        <v>0.4705408688715076</v>
+        <v>0.1045646375270017</v>
       </c>
       <c r="I24">
-        <v>3.48746792634793</v>
+        <v>0.7749928725217621</v>
       </c>
       <c r="J24">
-        <v>1.556799976655089</v>
+        <v>0.3459555503677976</v>
       </c>
       <c r="K24">
-        <v>2.061873557148251</v>
+        <v>0.4581941238107223</v>
       </c>
       <c r="L24">
-        <v>3.205812847466926</v>
+        <v>0.7124028549926502</v>
       </c>
       <c r="M24">
-        <v>2.017266358930146</v>
+        <v>0.448281413095588</v>
       </c>
       <c r="N24">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O24">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P24">
-        <v>24.85503500402312</v>
+        <v>5.523341112005137</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1570,49 +1570,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.9568475368489167</v>
+        <v>0.2126327859664262</v>
       </c>
       <c r="C25">
-        <v>7.299962155359864</v>
+        <v>1.622213812302192</v>
       </c>
       <c r="D25">
-        <v>0.002905599741865762</v>
+        <v>0.0006456888315257247</v>
       </c>
       <c r="E25">
-        <v>0.2763742879677104</v>
+        <v>0.06141650843726898</v>
       </c>
       <c r="F25">
-        <v>1.002074616097228</v>
+        <v>0.2226832480216062</v>
       </c>
       <c r="G25">
-        <v>1.81006841149528</v>
+        <v>0.4022374247767288</v>
       </c>
       <c r="H25">
-        <v>0.3219490155436631</v>
+        <v>0.07154422567636959</v>
       </c>
       <c r="I25">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="J25">
-        <v>1.177092665275799</v>
+        <v>0.2615761478390665</v>
       </c>
       <c r="K25">
-        <v>1.558977567599897</v>
+        <v>0.3464394594666438</v>
       </c>
       <c r="L25">
-        <v>4.808719271200388</v>
+        <v>1.068604282488975</v>
       </c>
       <c r="M25">
-        <v>3.025899538395219</v>
+        <v>0.6724221196433818</v>
       </c>
       <c r="N25">
-        <v>0.07122805192733005</v>
+        <v>0.01582845598385113</v>
       </c>
       <c r="O25">
-        <v>0.2960279839725128</v>
+        <v>0.06578399643833618</v>
       </c>
       <c r="P25">
-        <v>24.99428896682162</v>
+        <v>5.554286437071472</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1620,49 +1620,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.844123032507812</v>
+        <v>0.187582896112847</v>
       </c>
       <c r="C26">
-        <v>6.439966613769521</v>
+        <v>1.431103691948782</v>
       </c>
       <c r="D26">
-        <v>0.006101759457918099</v>
+        <v>0.001355946546204022</v>
       </c>
       <c r="E26">
-        <v>0.5803860047321919</v>
+        <v>0.1289746677182648</v>
       </c>
       <c r="F26">
-        <v>1.803734308975009</v>
+        <v>0.4008298464388911</v>
       </c>
       <c r="G26">
-        <v>3.258123140691503</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H26">
-        <v>0.3467143244316371</v>
+        <v>0.07704762765147492</v>
       </c>
       <c r="I26">
-        <v>2.569713208887948</v>
+        <v>0.5710473797528773</v>
       </c>
       <c r="J26">
-        <v>2.088390212586095</v>
+        <v>0.4640867139080212</v>
       </c>
       <c r="K26">
-        <v>2.765927942515946</v>
+        <v>0.6146506538924323</v>
       </c>
       <c r="L26">
-        <v>6.411625694933852</v>
+        <v>1.4248057099853</v>
       </c>
       <c r="M26">
-        <v>4.034532717860292</v>
+        <v>0.896562826191176</v>
       </c>
       <c r="N26">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O26">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P26">
-        <v>31.271757639983</v>
+        <v>6.94927947555178</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1670,49 +1670,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.728777028065751</v>
+        <v>0.161950450681278</v>
       </c>
       <c r="C27">
-        <v>5.559971175863128</v>
+        <v>1.235549150191805</v>
       </c>
       <c r="D27">
-        <v>0.006101759457918099</v>
+        <v>0.001355946546204022</v>
       </c>
       <c r="E27">
-        <v>0.5803860047321919</v>
+        <v>0.1289746677182648</v>
       </c>
       <c r="F27">
-        <v>1.302697000926396</v>
+        <v>0.289488222428088</v>
       </c>
       <c r="G27">
-        <v>2.353088934943864</v>
+        <v>0.5229086522097475</v>
       </c>
       <c r="H27">
-        <v>0.2105051255477798</v>
+        <v>0.04677891678839551</v>
       </c>
       <c r="I27">
-        <v>1.560183019681969</v>
+        <v>0.3467073377071043</v>
       </c>
       <c r="J27">
-        <v>2.449112158396421</v>
+        <v>0.5442471463103158</v>
       </c>
       <c r="K27">
-        <v>3.243679132586882</v>
+        <v>0.7208175850193073</v>
       </c>
       <c r="L27">
-        <v>4.488137986453697</v>
+        <v>0.9973639969897098</v>
       </c>
       <c r="M27">
-        <v>2.824172902502204</v>
+        <v>0.6275939783338232</v>
       </c>
       <c r="N27">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O27">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P27">
-        <v>25.36802156847484</v>
+        <v>5.637338126327741</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1720,49 +1720,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.8270832818515983</v>
+        <v>0.1837962848559108</v>
       </c>
       <c r="C28">
-        <v>6.309967287715169</v>
+        <v>1.402214952825593</v>
       </c>
       <c r="D28">
-        <v>0.008426239251410707</v>
+        <v>0.001872497611424602</v>
       </c>
       <c r="E28">
-        <v>0.8014854351063602</v>
+        <v>0.17810787446808</v>
       </c>
       <c r="F28">
-        <v>1.302697000926396</v>
+        <v>0.289488222428088</v>
       </c>
       <c r="G28">
-        <v>2.353088934943864</v>
+        <v>0.5229086522097475</v>
       </c>
       <c r="H28">
-        <v>0.2848010522117021</v>
+        <v>0.06328912271371155</v>
       </c>
       <c r="I28">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="J28">
-        <v>1.89853655689645</v>
+        <v>0.4218970126436555</v>
       </c>
       <c r="K28">
-        <v>2.514479947741769</v>
+        <v>0.5587733217203932</v>
       </c>
       <c r="L28">
-        <v>6.411625694933852</v>
+        <v>1.4248057099853</v>
       </c>
       <c r="M28">
-        <v>4.034532717860292</v>
+        <v>0.896562826191176</v>
       </c>
       <c r="N28">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O28">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P28">
-        <v>28.9799786782301</v>
+        <v>6.439995261828912</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1770,49 +1770,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.7536812790248323</v>
+        <v>0.1674847286721849</v>
       </c>
       <c r="C29">
-        <v>5.749970190865643</v>
+        <v>1.277771153525699</v>
       </c>
       <c r="D29">
-        <v>0.007263999354664404</v>
+        <v>0.001614222078814312</v>
       </c>
       <c r="E29">
-        <v>0.690935719919276</v>
+        <v>0.1535412710931724</v>
       </c>
       <c r="F29">
-        <v>1.402904462536119</v>
+        <v>0.3117565472302486</v>
       </c>
       <c r="G29">
-        <v>2.534095776093392</v>
+        <v>0.5631323946874207</v>
       </c>
       <c r="H29">
-        <v>0.2105051255477798</v>
+        <v>0.04677891678839551</v>
       </c>
       <c r="I29">
-        <v>1.560183019681969</v>
+        <v>0.3467073377071043</v>
       </c>
       <c r="J29">
-        <v>1.556799976655089</v>
+        <v>0.3459555503677976</v>
       </c>
       <c r="K29">
-        <v>2.061873557148251</v>
+        <v>0.4581941238107223</v>
       </c>
       <c r="L29">
-        <v>2.724940920346885</v>
+        <v>0.6055424267437527</v>
       </c>
       <c r="M29">
-        <v>1.714676405090624</v>
+        <v>0.3810392011312497</v>
       </c>
       <c r="N29">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O29">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P29">
-        <v>21.15145845021445</v>
+        <v>4.700324100047657</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1820,49 +1820,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.7615457793276995</v>
+        <v>0.1692323954061556</v>
       </c>
       <c r="C30">
-        <v>5.809969879813808</v>
+        <v>1.291104417736402</v>
       </c>
       <c r="D30">
-        <v>0.004358399612798641</v>
+        <v>0.0009685332472885872</v>
       </c>
       <c r="E30">
-        <v>0.4145614319515656</v>
+        <v>0.09212476265590346</v>
       </c>
       <c r="F30">
-        <v>1.252593270121535</v>
+        <v>0.2783540600270078</v>
       </c>
       <c r="G30">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="H30">
-        <v>0.1857398166598056</v>
+        <v>0.04127551481329015</v>
       </c>
       <c r="I30">
-        <v>1.376632076189973</v>
+        <v>0.3059182391533272</v>
       </c>
       <c r="J30">
-        <v>1.89853655689645</v>
+        <v>0.4218970126436555</v>
       </c>
       <c r="K30">
-        <v>2.514479947741769</v>
+        <v>0.5587733217203932</v>
       </c>
       <c r="L30">
-        <v>5.289591198320427</v>
+        <v>1.175464710737872</v>
       </c>
       <c r="M30">
-        <v>3.32848949223474</v>
+        <v>0.73966433160772</v>
       </c>
       <c r="N30">
-        <v>0.04748536795155339</v>
+        <v>0.01055230398923408</v>
       </c>
       <c r="O30">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="P30">
-        <v>25.34392072050624</v>
+        <v>5.631982382334718</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1870,49 +1870,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.7641672794286564</v>
+        <v>0.1698149509841457</v>
       </c>
       <c r="C31">
-        <v>5.829969776129863</v>
+        <v>1.29554883913997</v>
       </c>
       <c r="D31">
-        <v>0.005811199483731523</v>
+        <v>0.001291377663051449</v>
       </c>
       <c r="E31">
-        <v>0.5527485759354208</v>
+        <v>0.122833016874538</v>
       </c>
       <c r="F31">
-        <v>1.603319385755564</v>
+        <v>0.35629319683457</v>
       </c>
       <c r="G31">
-        <v>2.896109458392448</v>
+        <v>0.6435798796427663</v>
       </c>
       <c r="H31">
-        <v>0.1981224711037927</v>
+        <v>0.04402721580084282</v>
       </c>
       <c r="I31">
-        <v>1.468407547935971</v>
+        <v>0.3263127884302157</v>
       </c>
       <c r="J31">
-        <v>2.221287771568848</v>
+        <v>0.493619504793077</v>
       </c>
       <c r="K31">
-        <v>2.94194153885787</v>
+        <v>0.65376478641286</v>
       </c>
       <c r="L31">
-        <v>3.366103489840271</v>
+        <v>0.7480229977422828</v>
       </c>
       <c r="M31">
-        <v>2.118129676876653</v>
+        <v>0.4706954837503672</v>
       </c>
       <c r="N31">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O31">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P31">
-        <v>24.08853684994237</v>
+        <v>5.353008188876083</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1920,49 +1920,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.7995575307915606</v>
+        <v>0.1776794512870135</v>
       </c>
       <c r="C32">
-        <v>6.0999683763966</v>
+        <v>1.355548528088133</v>
       </c>
       <c r="D32">
-        <v>0.006682879406291252</v>
+        <v>0.001485084312509167</v>
       </c>
       <c r="E32">
-        <v>0.6356608623257338</v>
+        <v>0.1412579694057187</v>
       </c>
       <c r="F32">
-        <v>1.252593270121535</v>
+        <v>0.2783540600270078</v>
       </c>
       <c r="G32">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="H32">
-        <v>0.2600357433237279</v>
+        <v>0.05778572073860621</v>
       </c>
       <c r="I32">
-        <v>1.927284906665961</v>
+        <v>0.428285534814658</v>
       </c>
       <c r="J32">
-        <v>2.221287771568848</v>
+        <v>0.493619504793077</v>
       </c>
       <c r="K32">
-        <v>2.94194153885787</v>
+        <v>0.65376478641286</v>
       </c>
       <c r="L32">
-        <v>3.686684774586964</v>
+        <v>0.8192632832415477</v>
       </c>
       <c r="M32">
-        <v>2.319856312769667</v>
+        <v>0.5155236250599262</v>
       </c>
       <c r="N32">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O32">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P32">
-        <v>24.59776749913378</v>
+        <v>5.466170555363062</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1970,49 +1970,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.9109712850821887</v>
+        <v>0.2024380633515974</v>
       </c>
       <c r="C33">
-        <v>6.94996396982891</v>
+        <v>1.544436437739758</v>
       </c>
       <c r="D33">
-        <v>0.004648959586985218</v>
+        <v>0.00103310213044116</v>
       </c>
       <c r="E33">
-        <v>0.4421988607483366</v>
+        <v>0.09826641349963036</v>
       </c>
       <c r="F33">
-        <v>2.004149232194456</v>
+        <v>0.4453664960432125</v>
       </c>
       <c r="G33">
-        <v>3.62013682299056</v>
+        <v>0.8044748495534576</v>
       </c>
       <c r="H33">
-        <v>0.2971837066556891</v>
+        <v>0.06604082370126424</v>
       </c>
       <c r="I33">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="J33">
-        <v>2.069404847017131</v>
+        <v>0.4598677437815845</v>
       </c>
       <c r="K33">
-        <v>2.740783143038528</v>
+        <v>0.6090629206752285</v>
       </c>
       <c r="L33">
-        <v>3.526394132213617</v>
+        <v>0.7836431404919151</v>
       </c>
       <c r="M33">
-        <v>2.21899299482316</v>
+        <v>0.4931095544051468</v>
       </c>
       <c r="N33">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O33">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P33">
-        <v>27.17106729403344</v>
+        <v>6.038014954229653</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2020,49 +2020,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.108894542704361</v>
+        <v>0.2464210094898582</v>
       </c>
       <c r="C34">
-        <v>8.459956141691018</v>
+        <v>1.879990253709115</v>
       </c>
       <c r="D34">
-        <v>0.006973439380477828</v>
+        <v>0.00154965319566174</v>
       </c>
       <c r="E34">
-        <v>0.6632982911225049</v>
+        <v>0.1473996202494456</v>
       </c>
       <c r="F34">
-        <v>1.252593270121535</v>
+        <v>0.2783540600270078</v>
       </c>
       <c r="G34">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="H34">
-        <v>0.2724183977677149</v>
+        <v>0.06053742172615888</v>
       </c>
       <c r="I34">
-        <v>2.019060378411959</v>
+        <v>0.4486800840915466</v>
       </c>
       <c r="J34">
-        <v>1.803609729051628</v>
+        <v>0.4008021620114728</v>
       </c>
       <c r="K34">
-        <v>2.388755950354681</v>
+        <v>0.5308346556343735</v>
       </c>
       <c r="L34">
-        <v>2.564650277973541</v>
+        <v>0.5699222839941196</v>
       </c>
       <c r="M34">
-        <v>1.613813087144117</v>
+        <v>0.3586251304764703</v>
       </c>
       <c r="N34">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O34">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P34">
-        <v>24.47781835940928</v>
+        <v>5.43951519097984</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2070,49 +2070,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.082679541694802</v>
+        <v>0.240595453709956</v>
       </c>
       <c r="C35">
-        <v>8.259957178530476</v>
+        <v>1.835546039673439</v>
       </c>
       <c r="D35">
-        <v>0.002033919819306034</v>
+        <v>0.0004519821820680073</v>
       </c>
       <c r="E35">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="F35">
-        <v>1.352800731731257</v>
+        <v>0.3006223848291682</v>
       </c>
       <c r="G35">
-        <v>2.443592355518628</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="H35">
-        <v>0.3219490155436631</v>
+        <v>0.07154422567636959</v>
       </c>
       <c r="I35">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="J35">
-        <v>0.949268278448225</v>
+        <v>0.2109485063218278</v>
       </c>
       <c r="K35">
-        <v>1.257239973870885</v>
+        <v>0.2793866608601966</v>
       </c>
       <c r="L35">
-        <v>1.602906423733463</v>
+        <v>0.3562014274963251</v>
       </c>
       <c r="M35">
-        <v>1.008633179465073</v>
+        <v>0.224140706547794</v>
       </c>
       <c r="N35">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O35">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P35">
-        <v>20.98310354396241</v>
+        <v>4.662911898658313</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2120,49 +2120,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.9542260367479611</v>
+        <v>0.2120502303884357</v>
       </c>
       <c r="C36">
-        <v>7.279962259043809</v>
+        <v>1.617769390898625</v>
       </c>
       <c r="D36">
-        <v>0.003486719690238914</v>
+        <v>0.0007748265978308698</v>
       </c>
       <c r="E36">
-        <v>0.3316491455612525</v>
+        <v>0.07369981012472279</v>
       </c>
       <c r="F36">
-        <v>0.9519708852923661</v>
+        <v>0.2115490856205258</v>
       </c>
       <c r="G36">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="H36">
-        <v>0.4333929055395464</v>
+        <v>0.09630953456434366</v>
       </c>
       <c r="I36">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="J36">
-        <v>0.6834731604827222</v>
+        <v>0.151882924551716</v>
       </c>
       <c r="K36">
-        <v>0.9052127811870367</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="L36">
-        <v>2.724940920346885</v>
+        <v>0.6055424267437527</v>
       </c>
       <c r="M36">
-        <v>1.714676405090624</v>
+        <v>0.3810392011312497</v>
       </c>
       <c r="N36">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O36">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P36">
-        <v>21.03711639964617</v>
+        <v>4.674914755476928</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2170,49 +2170,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.7497490288733983</v>
+        <v>0.1666108953051996</v>
       </c>
       <c r="C37">
-        <v>5.719970346391564</v>
+        <v>1.271104521420347</v>
       </c>
       <c r="D37">
-        <v>0.001743359845119457</v>
+        <v>0.0003874132989154349</v>
       </c>
       <c r="E37">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="F37">
-        <v>0.7515559620729207</v>
+        <v>0.1670124360162046</v>
       </c>
       <c r="G37">
-        <v>1.35755130862146</v>
+        <v>0.3016780685825466</v>
       </c>
       <c r="H37">
-        <v>0.3467143244316371</v>
+        <v>0.07704762765147492</v>
       </c>
       <c r="I37">
-        <v>2.569713208887948</v>
+        <v>0.5710473797528773</v>
       </c>
       <c r="J37">
-        <v>0.6075316982068641</v>
+        <v>0.1350070440459698</v>
       </c>
       <c r="K37">
-        <v>0.8046335832773662</v>
+        <v>0.1788074629505258</v>
       </c>
       <c r="L37">
-        <v>1.442615781360116</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M37">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="N37">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O37">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P37">
-        <v>15.48658237558423</v>
+        <v>3.441462750129828</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2220,43 +2220,43 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.5885267726646078</v>
+        <v>0.1307837272588018</v>
       </c>
       <c r="C38">
-        <v>4.489976722954217</v>
+        <v>0.9977726051009373</v>
       </c>
       <c r="D38">
-        <v>0.002615039767679185</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E38">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F38">
-        <v>0.7014522312680597</v>
+        <v>0.1558782736151243</v>
       </c>
       <c r="G38">
-        <v>1.267047888046696</v>
+        <v>0.2815661973437104</v>
       </c>
       <c r="H38">
-        <v>0.3962449422075854</v>
+        <v>0.08805443160168563</v>
       </c>
       <c r="I38">
-        <v>2.936815095871942</v>
+        <v>0.6526255768604313</v>
       </c>
       <c r="J38">
-        <v>0.3986926769482546</v>
+        <v>0.08859837265516766</v>
       </c>
       <c r="K38">
-        <v>0.5280407890257716</v>
+        <v>0.1173423975612825</v>
       </c>
       <c r="L38">
-        <v>0.9617438542400777</v>
+        <v>0.213720856497795</v>
       </c>
       <c r="M38">
-        <v>0.6051799076790437</v>
+        <v>0.1344844239286763</v>
       </c>
       <c r="P38">
-        <v>13.12507277984488</v>
+        <v>2.916682839965527</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2264,49 +2264,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.3866712648910009</v>
+        <v>0.08592694775355572</v>
       </c>
       <c r="C39">
-        <v>2.949984706618028</v>
+        <v>0.655552157026228</v>
       </c>
       <c r="D39">
-        <v>0.001162239896746305</v>
+        <v>0.0002582755326102899</v>
       </c>
       <c r="E39">
-        <v>0.1105497151870842</v>
+        <v>0.02456660337490759</v>
       </c>
       <c r="F39">
-        <v>0.3006223848291682</v>
+        <v>0.06680497440648182</v>
       </c>
       <c r="G39">
-        <v>0.5430205234485838</v>
+        <v>0.1206712274330187</v>
       </c>
       <c r="H39">
-        <v>0.2228877799917668</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I39">
-        <v>1.651958491427967</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J39">
-        <v>0.2847804835344675</v>
+        <v>0.06328455189654834</v>
       </c>
       <c r="K39">
-        <v>0.3771719921612653</v>
+        <v>0.08381599825805897</v>
       </c>
       <c r="L39">
-        <v>1.122034496613424</v>
+        <v>0.2493409992474274</v>
       </c>
       <c r="M39">
-        <v>0.7060432256255511</v>
+        <v>0.1568984945834558</v>
       </c>
       <c r="N39">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O39">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P39">
-        <v>8.718096643541694</v>
+        <v>1.937354809675931</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2314,43 +2314,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.2005447577231292</v>
+        <v>0.04456550171625092</v>
       </c>
       <c r="C40">
-        <v>1.529992068178162</v>
+        <v>0.339998237372925</v>
       </c>
       <c r="D40">
-        <v>0.003196159716052338</v>
+        <v>0.0007102577146782973</v>
       </c>
       <c r="E40">
-        <v>0.3040117167644815</v>
+        <v>0.06755815928099589</v>
       </c>
       <c r="F40">
-        <v>0.4008298464388911</v>
+        <v>0.0890732992086425</v>
       </c>
       <c r="G40">
-        <v>0.724027364598112</v>
+        <v>0.1608949699106916</v>
       </c>
       <c r="H40">
-        <v>0.09906123555189636</v>
+        <v>0.02201360790042141</v>
       </c>
       <c r="I40">
-        <v>0.7342037739679854</v>
+        <v>0.1631563942151078</v>
       </c>
       <c r="J40">
-        <v>0.3417365802413611</v>
+        <v>0.07594146227585802</v>
       </c>
       <c r="K40">
-        <v>0.4526063905935184</v>
+        <v>0.1005791979096708</v>
       </c>
       <c r="L40">
-        <v>0.8014532118667315</v>
+        <v>0.1781007137481626</v>
       </c>
       <c r="M40">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="P40">
-        <v>6.095979695372859</v>
+        <v>1.354662154527302</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2358,37 +2358,37 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1376287553001867</v>
+        <v>0.03058416784448594</v>
       </c>
       <c r="C41">
-        <v>1.049994556592857</v>
+        <v>0.2333321236873015</v>
       </c>
       <c r="D41">
-        <v>0.001452799870932881</v>
+        <v>0.0003228444157628624</v>
       </c>
       <c r="E41">
-        <v>0.1381871439838552</v>
+        <v>0.03070825421863449</v>
       </c>
       <c r="F41">
-        <v>0.1002074616097228</v>
+        <v>0.02226832480216063</v>
       </c>
       <c r="G41">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="J41">
-        <v>0.1708682901206806</v>
+        <v>0.03797073113792901</v>
       </c>
       <c r="K41">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="L41">
-        <v>0.8014532118667315</v>
+        <v>0.1781007137481626</v>
       </c>
       <c r="M41">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="P41">
-        <v>3.31141884552379</v>
+        <v>0.7358708545608422</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2396,49 +2396,49 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.1114137542906273</v>
+        <v>0.02475861206458385</v>
       </c>
       <c r="C42">
-        <v>0.8499955934323126</v>
+        <v>0.188887909651625</v>
       </c>
       <c r="D42">
-        <v>0.002905599741865762</v>
+        <v>0.0006456888315257247</v>
       </c>
       <c r="E42">
-        <v>0.2763742879677104</v>
+        <v>0.06141650843726898</v>
       </c>
       <c r="F42">
-        <v>0.2004149232194455</v>
+        <v>0.04453664960432125</v>
       </c>
       <c r="G42">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="H42">
-        <v>0.01238265444398704</v>
+        <v>0.002751700987552676</v>
       </c>
       <c r="I42">
-        <v>0.09177547174599818</v>
+        <v>0.02039454927688848</v>
       </c>
       <c r="J42">
-        <v>0.227824386827574</v>
+        <v>0.05062764151723868</v>
       </c>
       <c r="K42">
-        <v>0.3017375937290123</v>
+        <v>0.06705279860644717</v>
       </c>
       <c r="L42">
-        <v>0.6411625694933853</v>
+        <v>0.1424805709985299</v>
       </c>
       <c r="M42">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="N42">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O42">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P42">
-        <v>3.603872467610284</v>
+        <v>0.8008605483578408</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2446,37 +2446,37 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.06160525237246452</v>
+        <v>0.0136900560827699</v>
       </c>
       <c r="C43">
-        <v>0.4699975634272788</v>
+        <v>0.1044439029838397</v>
       </c>
       <c r="D43">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E43">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="F43">
-        <v>0.2004149232194455</v>
+        <v>0.04453664960432125</v>
       </c>
       <c r="G43">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="J43">
-        <v>0.2468097523965385</v>
+        <v>0.05484661164367522</v>
       </c>
       <c r="K43">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="L43">
-        <v>1.122034496613424</v>
+        <v>0.2493409992474274</v>
       </c>
       <c r="M43">
-        <v>0.7060432256255511</v>
+        <v>0.1568984945834558</v>
       </c>
       <c r="P43">
-        <v>3.579585255473061</v>
+        <v>0.7954633901051247</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2484,43 +2484,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.06029450232198658</v>
+        <v>0.01339877829377479</v>
       </c>
       <c r="C44">
-        <v>0.4599976152692518</v>
+        <v>0.1022216922820559</v>
       </c>
       <c r="D44">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E44">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="F44">
-        <v>0.1503111924145841</v>
+        <v>0.03340248720324091</v>
       </c>
       <c r="G44">
-        <v>0.2715102617242919</v>
+        <v>0.06033561371650933</v>
       </c>
       <c r="H44">
-        <v>0.04953061777594818</v>
+        <v>0.0110068039502107</v>
       </c>
       <c r="I44">
-        <v>0.3671018869839927</v>
+        <v>0.08157819710755392</v>
       </c>
       <c r="J44">
-        <v>0.151882924551716</v>
+        <v>0.03375176101149245</v>
       </c>
       <c r="K44">
-        <v>0.2011583958193416</v>
+        <v>0.04470186573763146</v>
       </c>
       <c r="L44">
-        <v>0.3205812847466927</v>
+        <v>0.07124028549926495</v>
       </c>
       <c r="M44">
-        <v>0.2017266358930146</v>
+        <v>0.04482814130955878</v>
       </c>
       <c r="P44">
-        <v>2.317879283813693</v>
+        <v>0.5150842852919316</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2528,43 +2528,43 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.1572900060573562</v>
+        <v>0.0349533346794125</v>
       </c>
       <c r="C45">
-        <v>1.199993778963265</v>
+        <v>0.2666652842140589</v>
       </c>
       <c r="D45">
-        <v>0.0002905599741865762</v>
+        <v>6.456888315257249E-05</v>
       </c>
       <c r="E45">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="F45">
-        <v>0.2004149232194455</v>
+        <v>0.04453664960432125</v>
       </c>
       <c r="G45">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="H45">
-        <v>0.02476530888797409</v>
+        <v>0.005503401975105352</v>
       </c>
       <c r="I45">
-        <v>0.1835509434919964</v>
+        <v>0.04078909855377696</v>
       </c>
       <c r="J45">
-        <v>0.2468097523965385</v>
+        <v>0.05484661164367522</v>
       </c>
       <c r="K45">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="L45">
-        <v>0.3205812847466927</v>
+        <v>0.07124028549926495</v>
       </c>
       <c r="M45">
-        <v>0.2017266358930146</v>
+        <v>0.04482814130955878</v>
       </c>
       <c r="P45">
-        <v>3.251956697932726</v>
+        <v>0.7226570439850504</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2572,43 +2572,43 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.4535195174653773</v>
+        <v>0.100782114992306</v>
       </c>
       <c r="C46">
-        <v>3.459982062677413</v>
+        <v>0.7688849028172032</v>
       </c>
       <c r="D46">
-        <v>0.002324479793492609</v>
+        <v>0.0005165510652205799</v>
       </c>
       <c r="E46">
-        <v>0.2210994303741683</v>
+        <v>0.04913320674981518</v>
       </c>
       <c r="F46">
-        <v>0.7515559620729207</v>
+        <v>0.1670124360162046</v>
       </c>
       <c r="G46">
-        <v>1.35755130862146</v>
+        <v>0.3016780685825466</v>
       </c>
       <c r="H46">
-        <v>0.1114438899958834</v>
+        <v>0.02476530888797409</v>
       </c>
       <c r="I46">
-        <v>0.8259792457139835</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="J46">
-        <v>0.7973853538965091</v>
+        <v>0.1771967453103353</v>
       </c>
       <c r="K46">
-        <v>1.056081578051543</v>
+        <v>0.2346847951225651</v>
       </c>
       <c r="L46">
-        <v>2.564650277973541</v>
+        <v>0.5699222839941196</v>
       </c>
       <c r="M46">
-        <v>1.613813087144117</v>
+        <v>0.3586251304764703</v>
       </c>
       <c r="P46">
-        <v>13.21538619378041</v>
+        <v>2.936752487506757</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2616,49 +2616,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.7182910276619268</v>
+        <v>0.1596202283693171</v>
       </c>
       <c r="C47">
-        <v>5.479971590598911</v>
+        <v>1.217771464577536</v>
       </c>
       <c r="D47">
-        <v>0.004067839638612067</v>
+        <v>0.0009039643641360146</v>
       </c>
       <c r="E47">
-        <v>0.3869240031547946</v>
+        <v>0.08598311181217656</v>
       </c>
       <c r="F47">
-        <v>0.8016596928777822</v>
+        <v>0.178146598417285</v>
       </c>
       <c r="G47">
-        <v>1.448054729196224</v>
+        <v>0.3217899398213832</v>
       </c>
       <c r="H47">
-        <v>0.4333929055395464</v>
+        <v>0.09630953456434366</v>
       </c>
       <c r="I47">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="J47">
-        <v>1.423902417672338</v>
+        <v>0.3164227594827417</v>
       </c>
       <c r="K47">
-        <v>1.885859960806327</v>
+        <v>0.4190799912902949</v>
       </c>
       <c r="L47">
-        <v>5.289591198320427</v>
+        <v>1.175464710737872</v>
       </c>
       <c r="M47">
-        <v>3.32848949223474</v>
+        <v>0.73966433160772</v>
       </c>
       <c r="N47">
-        <v>0.05935670993944172</v>
+        <v>0.01319037998654261</v>
       </c>
       <c r="O47">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="P47">
-        <v>24.71839306539477</v>
+        <v>5.492976236754394</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2666,49 +2666,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.9463615364450936</v>
+        <v>0.2103025636544651</v>
       </c>
       <c r="C48">
-        <v>7.219962570095645</v>
+        <v>1.60443612668792</v>
       </c>
       <c r="D48">
-        <v>0.002615039767679185</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E48">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F48">
-        <v>1.252593270121535</v>
+        <v>0.2783540600270078</v>
       </c>
       <c r="G48">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="H48">
-        <v>0.4705408688715076</v>
+        <v>0.1045646375270017</v>
       </c>
       <c r="I48">
-        <v>3.48746792634793</v>
+        <v>0.7749928725217621</v>
       </c>
       <c r="J48">
-        <v>1.556799976655089</v>
+        <v>0.3459555503677976</v>
       </c>
       <c r="K48">
-        <v>2.061873557148251</v>
+        <v>0.4581941238107223</v>
       </c>
       <c r="L48">
-        <v>3.205812847466926</v>
+        <v>0.7124028549926502</v>
       </c>
       <c r="M48">
-        <v>2.017266358930146</v>
+        <v>0.448281413095588</v>
       </c>
       <c r="N48">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O48">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P48">
-        <v>24.85503500402312</v>
+        <v>5.523341112005137</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2716,49 +2716,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.9568475368489167</v>
+        <v>0.2126327859664262</v>
       </c>
       <c r="C49">
-        <v>7.299962155359864</v>
+        <v>1.622213812302192</v>
       </c>
       <c r="D49">
-        <v>0.002905599741865762</v>
+        <v>0.0006456888315257247</v>
       </c>
       <c r="E49">
-        <v>0.2763742879677104</v>
+        <v>0.06141650843726898</v>
       </c>
       <c r="F49">
-        <v>1.002074616097228</v>
+        <v>0.2226832480216062</v>
       </c>
       <c r="G49">
-        <v>1.81006841149528</v>
+        <v>0.4022374247767288</v>
       </c>
       <c r="H49">
-        <v>0.3219490155436631</v>
+        <v>0.07154422567636959</v>
       </c>
       <c r="I49">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="J49">
-        <v>1.177092665275799</v>
+        <v>0.2615761478390665</v>
       </c>
       <c r="K49">
-        <v>1.558977567599897</v>
+        <v>0.3464394594666438</v>
       </c>
       <c r="L49">
-        <v>4.808719271200388</v>
+        <v>1.068604282488975</v>
       </c>
       <c r="M49">
-        <v>3.025899538395219</v>
+        <v>0.6724221196433818</v>
       </c>
       <c r="N49">
-        <v>0.07122805192733005</v>
+        <v>0.01582845598385113</v>
       </c>
       <c r="O49">
-        <v>0.2960279839725128</v>
+        <v>0.06578399643833618</v>
       </c>
       <c r="P49">
-        <v>24.99428896682162</v>
+        <v>5.554286437071472</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.187582896112847</v>
+        <v>0.844123032507812</v>
       </c>
       <c r="C2">
-        <v>1.431103691948782</v>
+        <v>6.439966613769521</v>
       </c>
       <c r="D2">
-        <v>0.001355946546204022</v>
+        <v>0.006101759457918099</v>
       </c>
       <c r="E2">
-        <v>0.1289746677182648</v>
+        <v>0.5803860047321919</v>
       </c>
       <c r="F2">
-        <v>0.4008298464388911</v>
+        <v>1.803734308975009</v>
       </c>
       <c r="G2">
-        <v>0.724027364598112</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="H2">
-        <v>0.07704762765147492</v>
+        <v>0.3467143244316371</v>
       </c>
       <c r="I2">
-        <v>0.5710473797528773</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="J2">
-        <v>0.4640867139080212</v>
+        <v>2.088390212586095</v>
       </c>
       <c r="K2">
-        <v>0.6146506538924323</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="L2">
-        <v>1.4248057099853</v>
+        <v>6.411625694933852</v>
       </c>
       <c r="M2">
-        <v>0.896562826191176</v>
+        <v>4.034532717860292</v>
       </c>
       <c r="N2">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O2">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P2">
-        <v>6.94927947555178</v>
+        <v>31.271757639983</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,43 +530,43 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.2155455638563769</v>
+        <v>0.9699550373536967</v>
       </c>
       <c r="C3">
-        <v>1.644435919320031</v>
+        <v>7.399961636940136</v>
       </c>
       <c r="D3">
-        <v>0.001614222078814312</v>
+        <v>0.007263999354664404</v>
       </c>
       <c r="E3">
-        <v>0.1535412710931724</v>
+        <v>0.690935719919276</v>
       </c>
       <c r="F3">
-        <v>0.2672198976259273</v>
+        <v>1.202489539316673</v>
       </c>
       <c r="G3">
-        <v>0.4826849097320746</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="H3">
-        <v>0.04402721580084282</v>
+        <v>0.1981224711037927</v>
       </c>
       <c r="I3">
-        <v>0.3263127884302157</v>
+        <v>1.468407547935971</v>
       </c>
       <c r="J3">
-        <v>0.5822178774482448</v>
+        <v>2.619980448517101</v>
       </c>
       <c r="K3">
-        <v>0.7711071839741424</v>
+        <v>3.469982327883641</v>
       </c>
       <c r="L3">
-        <v>2.208448850477215</v>
+        <v>9.938019827147469</v>
       </c>
       <c r="M3">
-        <v>1.389672380596322</v>
+        <v>6.253525712683452</v>
       </c>
       <c r="P3">
-        <v>8.08682808043338</v>
+        <v>36.39072636195021</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -574,49 +574,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.1756405067640478</v>
+        <v>0.7903822804382152</v>
       </c>
       <c r="C4">
-        <v>1.339993053175646</v>
+        <v>6.02996873929041</v>
       </c>
       <c r="D4">
-        <v>0.001162239896746305</v>
+        <v>0.005230079535358371</v>
       </c>
       <c r="E4">
-        <v>0.1105497151870842</v>
+        <v>0.4974737183418786</v>
       </c>
       <c r="F4">
-        <v>0.2115490856205258</v>
+        <v>0.9519708852923661</v>
       </c>
       <c r="G4">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H4">
-        <v>0.07429592666392228</v>
+        <v>0.3343316699876502</v>
       </c>
       <c r="I4">
-        <v>0.5506528304759889</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="J4">
-        <v>0.4556487736551481</v>
+        <v>2.050419481448166</v>
       </c>
       <c r="K4">
-        <v>0.6034751874580245</v>
+        <v>2.715638343561111</v>
       </c>
       <c r="L4">
-        <v>1.460425852734932</v>
+        <v>6.571916337307199</v>
       </c>
       <c r="M4">
-        <v>0.918976896845955</v>
+        <v>4.135396035806799</v>
       </c>
       <c r="N4">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O4">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P4">
-        <v>6.311699772823308</v>
+        <v>28.4026489777049</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -624,49 +624,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.2009816744066218</v>
+        <v>0.9044175348297988</v>
       </c>
       <c r="C5">
-        <v>1.533325384230839</v>
+        <v>6.899964229038773</v>
       </c>
       <c r="D5">
-        <v>0.00154965319566174</v>
+        <v>0.006973439380477828</v>
       </c>
       <c r="E5">
-        <v>0.1473996202494456</v>
+        <v>0.6632982911225049</v>
       </c>
       <c r="F5">
-        <v>0.3228907096313291</v>
+        <v>1.45300819334098</v>
       </c>
       <c r="G5">
-        <v>0.5832442659262569</v>
+        <v>2.624599196668157</v>
       </c>
       <c r="H5">
-        <v>0.04953061777594818</v>
+        <v>0.2228877799917668</v>
       </c>
       <c r="I5">
-        <v>0.3671018869839927</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="J5">
-        <v>0.4429918632758385</v>
+        <v>1.993463384741273</v>
       </c>
       <c r="K5">
-        <v>0.5867119878064129</v>
+        <v>2.640203945128857</v>
       </c>
       <c r="L5">
-        <v>1.032984139739342</v>
+        <v>4.648428628827042</v>
       </c>
       <c r="M5">
-        <v>0.6500080489886025</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="N5">
-        <v>0.01055230398923408</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O5">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P5">
-        <v>5.973128153825082</v>
+        <v>26.87907669221287</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -674,49 +674,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.1910782295807884</v>
+        <v>0.8598520331135481</v>
       </c>
       <c r="C6">
-        <v>1.457770220370189</v>
+        <v>6.55996599166585</v>
       </c>
       <c r="D6">
-        <v>0.002130773144034891</v>
+        <v>0.009588479148157011</v>
       </c>
       <c r="E6">
-        <v>0.2026744778429876</v>
+        <v>0.9120351502934443</v>
       </c>
       <c r="F6">
-        <v>0.2672198976259273</v>
+        <v>1.202489539316673</v>
       </c>
       <c r="G6">
-        <v>0.4826849097320746</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="H6">
-        <v>0.04677891678839551</v>
+        <v>0.2105051255477798</v>
       </c>
       <c r="I6">
-        <v>0.3467073377071043</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="J6">
-        <v>0.4387728931494018</v>
+        <v>1.974478019172308</v>
       </c>
       <c r="K6">
-        <v>0.5811242545892089</v>
+        <v>2.615059145651439</v>
       </c>
       <c r="L6">
-        <v>1.389185567235668</v>
+        <v>6.251335052560505</v>
       </c>
       <c r="M6">
-        <v>0.8741487555363965</v>
+        <v>3.933669399913784</v>
       </c>
       <c r="N6">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O6">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P6">
-        <v>6.293878308705875</v>
+        <v>28.32245238917643</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -724,49 +724,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.187291618323852</v>
+        <v>0.8428122824573336</v>
       </c>
       <c r="C7">
-        <v>1.428881481246999</v>
+        <v>6.429966665611493</v>
       </c>
       <c r="D7">
-        <v>0.001226808779898877</v>
+        <v>0.005520639509544946</v>
       </c>
       <c r="E7">
-        <v>0.116691366030811</v>
+        <v>0.5251111471386498</v>
       </c>
       <c r="F7">
-        <v>0.2115490856205258</v>
+        <v>0.9519708852923661</v>
       </c>
       <c r="G7">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H7">
-        <v>0.06328912271371155</v>
+        <v>0.2848010522117021</v>
       </c>
       <c r="I7">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="J7">
-        <v>0.493619504793077</v>
+        <v>2.221287771568848</v>
       </c>
       <c r="K7">
-        <v>0.65376478641286</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="L7">
-        <v>1.282325138986771</v>
+        <v>5.770463125440465</v>
       </c>
       <c r="M7">
-        <v>0.8069065435720583</v>
+        <v>3.631079446074262</v>
       </c>
       <c r="N7">
-        <v>0.0237426839757767</v>
+        <v>0.1068420778909951</v>
       </c>
       <c r="O7">
-        <v>0.09867599465750425</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="P7">
-        <v>6.219164322020172</v>
+        <v>27.98623944909077</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -774,49 +774,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.1805922291769647</v>
+        <v>0.8126650312963407</v>
       </c>
       <c r="C8">
-        <v>1.37777063510597</v>
+        <v>6.19996785797687</v>
       </c>
       <c r="D8">
-        <v>0.001872497611424602</v>
+        <v>0.008426239251410707</v>
       </c>
       <c r="E8">
-        <v>0.17810787446808</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="F8">
-        <v>0.2226832480216062</v>
+        <v>1.002074616097228</v>
       </c>
       <c r="G8">
-        <v>0.4022374247767288</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="H8">
-        <v>0.05503401975105354</v>
+        <v>0.2476530888797409</v>
       </c>
       <c r="I8">
-        <v>0.4078909855377696</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="J8">
-        <v>0.4683056840344578</v>
+        <v>2.10737557815506</v>
       </c>
       <c r="K8">
-        <v>0.6202383871096365</v>
+        <v>2.791072741993363</v>
       </c>
       <c r="L8">
-        <v>1.068604282488975</v>
+        <v>4.808719271200388</v>
       </c>
       <c r="M8">
-        <v>0.6724221196433818</v>
+        <v>3.025899538395219</v>
       </c>
       <c r="N8">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O8">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P8">
-        <v>5.696565613937142</v>
+        <v>25.63454526271715</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -824,49 +824,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.2024380633515974</v>
+        <v>0.9109712850821887</v>
       </c>
       <c r="C9">
-        <v>1.544436437739758</v>
+        <v>6.94996396982891</v>
       </c>
       <c r="D9">
-        <v>0.00103310213044116</v>
+        <v>0.004648959586985218</v>
       </c>
       <c r="E9">
-        <v>0.09826641349963036</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="F9">
-        <v>0.4453664960432125</v>
+        <v>2.004149232194456</v>
       </c>
       <c r="G9">
-        <v>0.8044748495534576</v>
+        <v>3.62013682299056</v>
       </c>
       <c r="H9">
-        <v>0.06604082370126424</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I9">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J9">
-        <v>0.4598677437815845</v>
+        <v>2.069404847017131</v>
       </c>
       <c r="K9">
-        <v>0.6090629206752285</v>
+        <v>2.740783143038528</v>
       </c>
       <c r="L9">
-        <v>0.7836431404919151</v>
+        <v>3.526394132213617</v>
       </c>
       <c r="M9">
-        <v>0.4931095544051468</v>
+        <v>2.21899299482316</v>
       </c>
       <c r="N9">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O9">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P9">
-        <v>6.038014954229653</v>
+        <v>27.17106729403344</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -874,49 +874,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.2464210094898582</v>
+        <v>1.108894542704361</v>
       </c>
       <c r="C10">
-        <v>1.879990253709115</v>
+        <v>8.459956141691018</v>
       </c>
       <c r="D10">
-        <v>0.00154965319566174</v>
+        <v>0.006973439380477828</v>
       </c>
       <c r="E10">
-        <v>0.1473996202494456</v>
+        <v>0.6632982911225049</v>
       </c>
       <c r="F10">
-        <v>0.2783540600270078</v>
+        <v>1.252593270121535</v>
       </c>
       <c r="G10">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H10">
-        <v>0.06053742172615888</v>
+        <v>0.2724183977677149</v>
       </c>
       <c r="I10">
-        <v>0.4486800840915466</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="J10">
-        <v>0.4008021620114728</v>
+        <v>1.803609729051628</v>
       </c>
       <c r="K10">
-        <v>0.5308346556343735</v>
+        <v>2.388755950354681</v>
       </c>
       <c r="L10">
-        <v>0.5699222839941196</v>
+        <v>2.564650277973541</v>
       </c>
       <c r="M10">
-        <v>0.3586251304764703</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="N10">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O10">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P10">
-        <v>5.43951519097984</v>
+        <v>24.47781835940928</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,49 +924,49 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.240595453709956</v>
+        <v>1.082679541694802</v>
       </c>
       <c r="C11">
-        <v>1.835546039673439</v>
+        <v>8.259957178530476</v>
       </c>
       <c r="D11">
-        <v>0.0004519821820680073</v>
+        <v>0.002033919819306034</v>
       </c>
       <c r="E11">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="F11">
-        <v>0.3006223848291682</v>
+        <v>1.352800731731257</v>
       </c>
       <c r="G11">
-        <v>0.5430205234485838</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="H11">
-        <v>0.07154422567636959</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I11">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J11">
-        <v>0.2109485063218278</v>
+        <v>0.949268278448225</v>
       </c>
       <c r="K11">
-        <v>0.2793866608601966</v>
+        <v>1.257239973870885</v>
       </c>
       <c r="L11">
-        <v>0.3562014274963251</v>
+        <v>1.602906423733463</v>
       </c>
       <c r="M11">
-        <v>0.224140706547794</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="N11">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O11">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P11">
-        <v>4.662911898658313</v>
+        <v>20.98310354396241</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,49 +974,49 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.2120502303884357</v>
+        <v>0.9542260367479611</v>
       </c>
       <c r="C12">
-        <v>1.617769390898625</v>
+        <v>7.279962259043809</v>
       </c>
       <c r="D12">
-        <v>0.0007748265978308698</v>
+        <v>0.003486719690238914</v>
       </c>
       <c r="E12">
-        <v>0.07369981012472279</v>
+        <v>0.3316491455612525</v>
       </c>
       <c r="F12">
-        <v>0.2115490856205258</v>
+        <v>0.9519708852923661</v>
       </c>
       <c r="G12">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H12">
-        <v>0.09630953456434366</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I12">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J12">
-        <v>0.151882924551716</v>
+        <v>0.6834731604827222</v>
       </c>
       <c r="K12">
-        <v>0.2011583958193416</v>
+        <v>0.9052127811870367</v>
       </c>
       <c r="L12">
-        <v>0.6055424267437527</v>
+        <v>2.724940920346885</v>
       </c>
       <c r="M12">
-        <v>0.3810392011312497</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="N12">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O12">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P12">
-        <v>4.674914755476928</v>
+        <v>21.03711639964617</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.1666108953051996</v>
+        <v>0.7497490288733983</v>
       </c>
       <c r="C13">
-        <v>1.271104521420347</v>
+        <v>5.719970346391564</v>
       </c>
       <c r="D13">
-        <v>0.0003874132989154349</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E13">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F13">
-        <v>0.1670124360162046</v>
+        <v>0.7515559620729207</v>
       </c>
       <c r="G13">
-        <v>0.3016780685825466</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="H13">
-        <v>0.07704762765147492</v>
+        <v>0.3467143244316371</v>
       </c>
       <c r="I13">
-        <v>0.5710473797528773</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="J13">
-        <v>0.1350070440459698</v>
+        <v>0.6075316982068641</v>
       </c>
       <c r="K13">
-        <v>0.1788074629505258</v>
+        <v>0.8046335832773662</v>
       </c>
       <c r="L13">
-        <v>0.3205812847466927</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M13">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N13">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O13">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P13">
-        <v>3.441462750129828</v>
+        <v>15.48658237558423</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.1307837272588018</v>
+        <v>0.5885267726646078</v>
       </c>
       <c r="C14">
-        <v>0.9977726051009373</v>
+        <v>4.489976722954217</v>
       </c>
       <c r="D14">
-        <v>0.0005811199483731523</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E14">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F14">
-        <v>0.1558782736151243</v>
+        <v>0.7014522312680597</v>
       </c>
       <c r="G14">
-        <v>0.2815661973437104</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="H14">
-        <v>0.08805443160168563</v>
+        <v>0.3962449422075854</v>
       </c>
       <c r="I14">
-        <v>0.6526255768604313</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="J14">
-        <v>0.08859837265516766</v>
+        <v>0.3986926769482546</v>
       </c>
       <c r="K14">
-        <v>0.1173423975612825</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="L14">
-        <v>0.213720856497795</v>
+        <v>0.9617438542400777</v>
       </c>
       <c r="M14">
-        <v>0.1344844239286763</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="P14">
-        <v>2.916682839965527</v>
+        <v>13.12507277984488</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,49 +1118,49 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.08592694775355572</v>
+        <v>0.3866712648910009</v>
       </c>
       <c r="C15">
-        <v>0.655552157026228</v>
+        <v>2.949984706618028</v>
       </c>
       <c r="D15">
-        <v>0.0002582755326102899</v>
+        <v>0.001162239896746305</v>
       </c>
       <c r="E15">
-        <v>0.02456660337490759</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="F15">
-        <v>0.06680497440648182</v>
+        <v>0.3006223848291682</v>
       </c>
       <c r="G15">
-        <v>0.1206712274330187</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="H15">
-        <v>0.04953061777594818</v>
+        <v>0.2228877799917668</v>
       </c>
       <c r="I15">
-        <v>0.3671018869839927</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="J15">
-        <v>0.06328455189654834</v>
+        <v>0.2847804835344675</v>
       </c>
       <c r="K15">
-        <v>0.08381599825805897</v>
+        <v>0.3771719921612653</v>
       </c>
       <c r="L15">
-        <v>0.2493409992474274</v>
+        <v>1.122034496613424</v>
       </c>
       <c r="M15">
-        <v>0.1568984945834558</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="N15">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O15">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P15">
-        <v>1.937354809675931</v>
+        <v>8.718096643541694</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1168,43 +1168,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.04456550171625092</v>
+        <v>0.2005447577231292</v>
       </c>
       <c r="C16">
-        <v>0.339998237372925</v>
+        <v>1.529992068178162</v>
       </c>
       <c r="D16">
-        <v>0.0007102577146782973</v>
+        <v>0.003196159716052338</v>
       </c>
       <c r="E16">
-        <v>0.06755815928099589</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="F16">
-        <v>0.0890732992086425</v>
+        <v>0.4008298464388911</v>
       </c>
       <c r="G16">
-        <v>0.1608949699106916</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H16">
-        <v>0.02201360790042141</v>
+        <v>0.09906123555189636</v>
       </c>
       <c r="I16">
-        <v>0.1631563942151078</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="J16">
-        <v>0.07594146227585802</v>
+        <v>0.3417365802413611</v>
       </c>
       <c r="K16">
-        <v>0.1005791979096708</v>
+        <v>0.4526063905935184</v>
       </c>
       <c r="L16">
-        <v>0.1781007137481626</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M16">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P16">
-        <v>1.354662154527302</v>
+        <v>6.095979695372859</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1212,37 +1212,37 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.03058416784448594</v>
+        <v>0.1376287553001867</v>
       </c>
       <c r="C17">
-        <v>0.2333321236873015</v>
+        <v>1.049994556592857</v>
       </c>
       <c r="D17">
-        <v>0.0003228444157628624</v>
+        <v>0.001452799870932881</v>
       </c>
       <c r="E17">
-        <v>0.03070825421863449</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="F17">
-        <v>0.02226832480216063</v>
+        <v>0.1002074616097228</v>
       </c>
       <c r="G17">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="J17">
-        <v>0.03797073113792901</v>
+        <v>0.1708682901206806</v>
       </c>
       <c r="K17">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="L17">
-        <v>0.1781007137481626</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M17">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P17">
-        <v>0.7358708545608422</v>
+        <v>3.31141884552379</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1250,49 +1250,49 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.02475861206458385</v>
+        <v>0.1114137542906273</v>
       </c>
       <c r="C18">
-        <v>0.188887909651625</v>
+        <v>0.8499955934323126</v>
       </c>
       <c r="D18">
-        <v>0.0006456888315257247</v>
+        <v>0.002905599741865762</v>
       </c>
       <c r="E18">
-        <v>0.06141650843726898</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="F18">
-        <v>0.04453664960432125</v>
+        <v>0.2004149232194455</v>
       </c>
       <c r="G18">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="H18">
-        <v>0.002751700987552676</v>
+        <v>0.01238265444398704</v>
       </c>
       <c r="I18">
-        <v>0.02039454927688848</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="J18">
-        <v>0.05062764151723868</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K18">
-        <v>0.06705279860644717</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L18">
-        <v>0.1424805709985299</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M18">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="N18">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O18">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P18">
-        <v>0.8008605483578408</v>
+        <v>3.603872467610284</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1300,37 +1300,37 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.0136900560827699</v>
+        <v>0.06160525237246452</v>
       </c>
       <c r="C19">
-        <v>0.1044439029838397</v>
+        <v>0.4699975634272788</v>
       </c>
       <c r="D19">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E19">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F19">
-        <v>0.04453664960432125</v>
+        <v>0.2004149232194455</v>
       </c>
       <c r="G19">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="J19">
-        <v>0.05484661164367522</v>
+        <v>0.2468097523965385</v>
       </c>
       <c r="K19">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="L19">
-        <v>0.2493409992474274</v>
+        <v>1.122034496613424</v>
       </c>
       <c r="M19">
-        <v>0.1568984945834558</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="P19">
-        <v>0.7954633901051247</v>
+        <v>3.579585255473061</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1338,43 +1338,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.01339877829377479</v>
+        <v>0.06029450232198658</v>
       </c>
       <c r="C20">
-        <v>0.1022216922820559</v>
+        <v>0.4599976152692518</v>
       </c>
       <c r="D20">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E20">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F20">
-        <v>0.03340248720324091</v>
+        <v>0.1503111924145841</v>
       </c>
       <c r="G20">
-        <v>0.06033561371650933</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="H20">
-        <v>0.0110068039502107</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I20">
-        <v>0.08157819710755392</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J20">
-        <v>0.03375176101149245</v>
+        <v>0.151882924551716</v>
       </c>
       <c r="K20">
-        <v>0.04470186573763146</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="L20">
-        <v>0.07124028549926495</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M20">
-        <v>0.04482814130955878</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="P20">
-        <v>0.5150842852919316</v>
+        <v>2.317879283813693</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1382,43 +1382,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.0349533346794125</v>
+        <v>0.1572900060573562</v>
       </c>
       <c r="C21">
-        <v>0.2666652842140589</v>
+        <v>1.199993778963265</v>
       </c>
       <c r="D21">
-        <v>6.456888315257249E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E21">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F21">
-        <v>0.04453664960432125</v>
+        <v>0.2004149232194455</v>
       </c>
       <c r="G21">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="H21">
-        <v>0.005503401975105352</v>
+        <v>0.02476530888797409</v>
       </c>
       <c r="I21">
-        <v>0.04078909855377696</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="J21">
-        <v>0.05484661164367522</v>
+        <v>0.2468097523965385</v>
       </c>
       <c r="K21">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="L21">
-        <v>0.07124028549926495</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M21">
-        <v>0.04482814130955878</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="P21">
-        <v>0.7226570439850504</v>
+        <v>3.251956697932726</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1426,43 +1426,43 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.100782114992306</v>
+        <v>0.4535195174653773</v>
       </c>
       <c r="C22">
-        <v>0.7688849028172032</v>
+        <v>3.459982062677413</v>
       </c>
       <c r="D22">
-        <v>0.0005165510652205799</v>
+        <v>0.002324479793492609</v>
       </c>
       <c r="E22">
-        <v>0.04913320674981518</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="F22">
-        <v>0.1670124360162046</v>
+        <v>0.7515559620729207</v>
       </c>
       <c r="G22">
-        <v>0.3016780685825466</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="H22">
-        <v>0.02476530888797409</v>
+        <v>0.1114438899958834</v>
       </c>
       <c r="I22">
-        <v>0.1835509434919964</v>
+        <v>0.8259792457139835</v>
       </c>
       <c r="J22">
-        <v>0.1771967453103353</v>
+        <v>0.7973853538965091</v>
       </c>
       <c r="K22">
-        <v>0.2346847951225651</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="L22">
-        <v>0.5699222839941196</v>
+        <v>2.564650277973541</v>
       </c>
       <c r="M22">
-        <v>0.3586251304764703</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="P22">
-        <v>2.936752487506757</v>
+        <v>13.21538619378041</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1470,49 +1470,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.1596202283693171</v>
+        <v>0.7182910276619268</v>
       </c>
       <c r="C23">
-        <v>1.217771464577536</v>
+        <v>5.479971590598911</v>
       </c>
       <c r="D23">
-        <v>0.0009039643641360146</v>
+        <v>0.004067839638612067</v>
       </c>
       <c r="E23">
-        <v>0.08598311181217656</v>
+        <v>0.3869240031547946</v>
       </c>
       <c r="F23">
-        <v>0.178146598417285</v>
+        <v>0.8016596928777822</v>
       </c>
       <c r="G23">
-        <v>0.3217899398213832</v>
+        <v>1.448054729196224</v>
       </c>
       <c r="H23">
-        <v>0.09630953456434366</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I23">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J23">
-        <v>0.3164227594827417</v>
+        <v>1.423902417672338</v>
       </c>
       <c r="K23">
-        <v>0.4190799912902949</v>
+        <v>1.885859960806327</v>
       </c>
       <c r="L23">
-        <v>1.175464710737872</v>
+        <v>5.289591198320427</v>
       </c>
       <c r="M23">
-        <v>0.73966433160772</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="N23">
-        <v>0.01319037998654261</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O23">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P23">
-        <v>5.492976236754394</v>
+        <v>24.71839306539477</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1520,49 +1520,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.2103025636544651</v>
+        <v>0.9463615364450936</v>
       </c>
       <c r="C24">
-        <v>1.60443612668792</v>
+        <v>7.219962570095645</v>
       </c>
       <c r="D24">
-        <v>0.0005811199483731523</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E24">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F24">
-        <v>0.2783540600270078</v>
+        <v>1.252593270121535</v>
       </c>
       <c r="G24">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H24">
-        <v>0.1045646375270017</v>
+        <v>0.4705408688715076</v>
       </c>
       <c r="I24">
-        <v>0.7749928725217621</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="J24">
-        <v>0.3459555503677976</v>
+        <v>1.556799976655089</v>
       </c>
       <c r="K24">
-        <v>0.4581941238107223</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="L24">
-        <v>0.7124028549926502</v>
+        <v>3.205812847466926</v>
       </c>
       <c r="M24">
-        <v>0.448281413095588</v>
+        <v>2.017266358930146</v>
       </c>
       <c r="N24">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O24">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P24">
-        <v>5.523341112005137</v>
+        <v>24.85503500402312</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1570,49 +1570,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.2126327859664262</v>
+        <v>0.9568475368489167</v>
       </c>
       <c r="C25">
-        <v>1.622213812302192</v>
+        <v>7.299962155359864</v>
       </c>
       <c r="D25">
-        <v>0.0006456888315257247</v>
+        <v>0.002905599741865762</v>
       </c>
       <c r="E25">
-        <v>0.06141650843726898</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="F25">
-        <v>0.2226832480216062</v>
+        <v>1.002074616097228</v>
       </c>
       <c r="G25">
-        <v>0.4022374247767288</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="H25">
-        <v>0.07154422567636959</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I25">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J25">
-        <v>0.2615761478390665</v>
+        <v>1.177092665275799</v>
       </c>
       <c r="K25">
-        <v>0.3464394594666438</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="L25">
-        <v>1.068604282488975</v>
+        <v>4.808719271200388</v>
       </c>
       <c r="M25">
-        <v>0.6724221196433818</v>
+        <v>3.025899538395219</v>
       </c>
       <c r="N25">
-        <v>0.01582845598385113</v>
+        <v>0.07122805192733005</v>
       </c>
       <c r="O25">
-        <v>0.06578399643833618</v>
+        <v>0.2960279839725128</v>
       </c>
       <c r="P25">
-        <v>5.554286437071472</v>
+        <v>24.99428896682162</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1620,49 +1620,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.187582896112847</v>
+        <v>0.844123032507812</v>
       </c>
       <c r="C26">
-        <v>1.431103691948782</v>
+        <v>6.439966613769521</v>
       </c>
       <c r="D26">
-        <v>0.001355946546204022</v>
+        <v>0.006101759457918099</v>
       </c>
       <c r="E26">
-        <v>0.1289746677182648</v>
+        <v>0.5803860047321919</v>
       </c>
       <c r="F26">
-        <v>0.4008298464388911</v>
+        <v>1.803734308975009</v>
       </c>
       <c r="G26">
-        <v>0.724027364598112</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="H26">
-        <v>0.07704762765147492</v>
+        <v>0.3467143244316371</v>
       </c>
       <c r="I26">
-        <v>0.5710473797528773</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="J26">
-        <v>0.4640867139080212</v>
+        <v>2.088390212586095</v>
       </c>
       <c r="K26">
-        <v>0.6146506538924323</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="L26">
-        <v>1.4248057099853</v>
+        <v>6.411625694933852</v>
       </c>
       <c r="M26">
-        <v>0.896562826191176</v>
+        <v>4.034532717860292</v>
       </c>
       <c r="N26">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O26">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P26">
-        <v>6.94927947555178</v>
+        <v>31.271757639983</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1670,49 +1670,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.161950450681278</v>
+        <v>0.728777028065751</v>
       </c>
       <c r="C27">
-        <v>1.235549150191805</v>
+        <v>5.559971175863128</v>
       </c>
       <c r="D27">
-        <v>0.001355946546204022</v>
+        <v>0.006101759457918099</v>
       </c>
       <c r="E27">
-        <v>0.1289746677182648</v>
+        <v>0.5803860047321919</v>
       </c>
       <c r="F27">
-        <v>0.289488222428088</v>
+        <v>1.302697000926396</v>
       </c>
       <c r="G27">
-        <v>0.5229086522097475</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="H27">
-        <v>0.04677891678839551</v>
+        <v>0.2105051255477798</v>
       </c>
       <c r="I27">
-        <v>0.3467073377071043</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="J27">
-        <v>0.5442471463103158</v>
+        <v>2.449112158396421</v>
       </c>
       <c r="K27">
-        <v>0.7208175850193073</v>
+        <v>3.243679132586882</v>
       </c>
       <c r="L27">
-        <v>0.9973639969897098</v>
+        <v>4.488137986453697</v>
       </c>
       <c r="M27">
-        <v>0.6275939783338232</v>
+        <v>2.824172902502204</v>
       </c>
       <c r="N27">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O27">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P27">
-        <v>5.637338126327741</v>
+        <v>25.36802156847484</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1720,49 +1720,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.1837962848559108</v>
+        <v>0.8270832818515983</v>
       </c>
       <c r="C28">
-        <v>1.402214952825593</v>
+        <v>6.309967287715169</v>
       </c>
       <c r="D28">
-        <v>0.001872497611424602</v>
+        <v>0.008426239251410707</v>
       </c>
       <c r="E28">
-        <v>0.17810787446808</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="F28">
-        <v>0.289488222428088</v>
+        <v>1.302697000926396</v>
       </c>
       <c r="G28">
-        <v>0.5229086522097475</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="H28">
-        <v>0.06328912271371155</v>
+        <v>0.2848010522117021</v>
       </c>
       <c r="I28">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="J28">
-        <v>0.4218970126436555</v>
+        <v>1.89853655689645</v>
       </c>
       <c r="K28">
-        <v>0.5587733217203932</v>
+        <v>2.514479947741769</v>
       </c>
       <c r="L28">
-        <v>1.4248057099853</v>
+        <v>6.411625694933852</v>
       </c>
       <c r="M28">
-        <v>0.896562826191176</v>
+        <v>4.034532717860292</v>
       </c>
       <c r="N28">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O28">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P28">
-        <v>6.439995261828912</v>
+        <v>28.9799786782301</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1770,49 +1770,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.1674847286721849</v>
+        <v>0.7536812790248323</v>
       </c>
       <c r="C29">
-        <v>1.277771153525699</v>
+        <v>5.749970190865643</v>
       </c>
       <c r="D29">
-        <v>0.001614222078814312</v>
+        <v>0.007263999354664404</v>
       </c>
       <c r="E29">
-        <v>0.1535412710931724</v>
+        <v>0.690935719919276</v>
       </c>
       <c r="F29">
-        <v>0.3117565472302486</v>
+        <v>1.402904462536119</v>
       </c>
       <c r="G29">
-        <v>0.5631323946874207</v>
+        <v>2.534095776093392</v>
       </c>
       <c r="H29">
-        <v>0.04677891678839551</v>
+        <v>0.2105051255477798</v>
       </c>
       <c r="I29">
-        <v>0.3467073377071043</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="J29">
-        <v>0.3459555503677976</v>
+        <v>1.556799976655089</v>
       </c>
       <c r="K29">
-        <v>0.4581941238107223</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="L29">
-        <v>0.6055424267437527</v>
+        <v>2.724940920346885</v>
       </c>
       <c r="M29">
-        <v>0.3810392011312497</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="N29">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O29">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P29">
-        <v>4.700324100047657</v>
+        <v>21.15145845021445</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1820,49 +1820,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.1692323954061556</v>
+        <v>0.7615457793276995</v>
       </c>
       <c r="C30">
-        <v>1.291104417736402</v>
+        <v>5.809969879813808</v>
       </c>
       <c r="D30">
-        <v>0.0009685332472885872</v>
+        <v>0.004358399612798641</v>
       </c>
       <c r="E30">
-        <v>0.09212476265590346</v>
+        <v>0.4145614319515656</v>
       </c>
       <c r="F30">
-        <v>0.2783540600270078</v>
+        <v>1.252593270121535</v>
       </c>
       <c r="G30">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H30">
-        <v>0.04127551481329015</v>
+        <v>0.1857398166598056</v>
       </c>
       <c r="I30">
-        <v>0.3059182391533272</v>
+        <v>1.376632076189973</v>
       </c>
       <c r="J30">
-        <v>0.4218970126436555</v>
+        <v>1.89853655689645</v>
       </c>
       <c r="K30">
-        <v>0.5587733217203932</v>
+        <v>2.514479947741769</v>
       </c>
       <c r="L30">
-        <v>1.175464710737872</v>
+        <v>5.289591198320427</v>
       </c>
       <c r="M30">
-        <v>0.73966433160772</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="N30">
-        <v>0.01055230398923408</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O30">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P30">
-        <v>5.631982382334718</v>
+        <v>25.34392072050624</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1870,49 +1870,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.1698149509841457</v>
+        <v>0.7641672794286564</v>
       </c>
       <c r="C31">
-        <v>1.29554883913997</v>
+        <v>5.829969776129863</v>
       </c>
       <c r="D31">
-        <v>0.001291377663051449</v>
+        <v>0.005811199483731523</v>
       </c>
       <c r="E31">
-        <v>0.122833016874538</v>
+        <v>0.5527485759354208</v>
       </c>
       <c r="F31">
-        <v>0.35629319683457</v>
+        <v>1.603319385755564</v>
       </c>
       <c r="G31">
-        <v>0.6435798796427663</v>
+        <v>2.896109458392448</v>
       </c>
       <c r="H31">
-        <v>0.04402721580084282</v>
+        <v>0.1981224711037927</v>
       </c>
       <c r="I31">
-        <v>0.3263127884302157</v>
+        <v>1.468407547935971</v>
       </c>
       <c r="J31">
-        <v>0.493619504793077</v>
+        <v>2.221287771568848</v>
       </c>
       <c r="K31">
-        <v>0.65376478641286</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="L31">
-        <v>0.7480229977422828</v>
+        <v>3.366103489840271</v>
       </c>
       <c r="M31">
-        <v>0.4706954837503672</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="N31">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O31">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P31">
-        <v>5.353008188876083</v>
+        <v>24.08853684994237</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1920,49 +1920,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.1776794512870135</v>
+        <v>0.7995575307915606</v>
       </c>
       <c r="C32">
-        <v>1.355548528088133</v>
+        <v>6.0999683763966</v>
       </c>
       <c r="D32">
-        <v>0.001485084312509167</v>
+        <v>0.006682879406291252</v>
       </c>
       <c r="E32">
-        <v>0.1412579694057187</v>
+        <v>0.6356608623257338</v>
       </c>
       <c r="F32">
-        <v>0.2783540600270078</v>
+        <v>1.252593270121535</v>
       </c>
       <c r="G32">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H32">
-        <v>0.05778572073860621</v>
+        <v>0.2600357433237279</v>
       </c>
       <c r="I32">
-        <v>0.428285534814658</v>
+        <v>1.927284906665961</v>
       </c>
       <c r="J32">
-        <v>0.493619504793077</v>
+        <v>2.221287771568848</v>
       </c>
       <c r="K32">
-        <v>0.65376478641286</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="L32">
-        <v>0.8192632832415477</v>
+        <v>3.686684774586964</v>
       </c>
       <c r="M32">
-        <v>0.5155236250599262</v>
+        <v>2.319856312769667</v>
       </c>
       <c r="N32">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O32">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P32">
-        <v>5.466170555363062</v>
+        <v>24.59776749913378</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1970,49 +1970,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.2024380633515974</v>
+        <v>0.9109712850821887</v>
       </c>
       <c r="C33">
-        <v>1.544436437739758</v>
+        <v>6.94996396982891</v>
       </c>
       <c r="D33">
-        <v>0.00103310213044116</v>
+        <v>0.004648959586985218</v>
       </c>
       <c r="E33">
-        <v>0.09826641349963036</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="F33">
-        <v>0.4453664960432125</v>
+        <v>2.004149232194456</v>
       </c>
       <c r="G33">
-        <v>0.8044748495534576</v>
+        <v>3.62013682299056</v>
       </c>
       <c r="H33">
-        <v>0.06604082370126424</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I33">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J33">
-        <v>0.4598677437815845</v>
+        <v>2.069404847017131</v>
       </c>
       <c r="K33">
-        <v>0.6090629206752285</v>
+        <v>2.740783143038528</v>
       </c>
       <c r="L33">
-        <v>0.7836431404919151</v>
+        <v>3.526394132213617</v>
       </c>
       <c r="M33">
-        <v>0.4931095544051468</v>
+        <v>2.21899299482316</v>
       </c>
       <c r="N33">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O33">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P33">
-        <v>6.038014954229653</v>
+        <v>27.17106729403344</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2020,49 +2020,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.2464210094898582</v>
+        <v>1.108894542704361</v>
       </c>
       <c r="C34">
-        <v>1.879990253709115</v>
+        <v>8.459956141691018</v>
       </c>
       <c r="D34">
-        <v>0.00154965319566174</v>
+        <v>0.006973439380477828</v>
       </c>
       <c r="E34">
-        <v>0.1473996202494456</v>
+        <v>0.6632982911225049</v>
       </c>
       <c r="F34">
-        <v>0.2783540600270078</v>
+        <v>1.252593270121535</v>
       </c>
       <c r="G34">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H34">
-        <v>0.06053742172615888</v>
+        <v>0.2724183977677149</v>
       </c>
       <c r="I34">
-        <v>0.4486800840915466</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="J34">
-        <v>0.4008021620114728</v>
+        <v>1.803609729051628</v>
       </c>
       <c r="K34">
-        <v>0.5308346556343735</v>
+        <v>2.388755950354681</v>
       </c>
       <c r="L34">
-        <v>0.5699222839941196</v>
+        <v>2.564650277973541</v>
       </c>
       <c r="M34">
-        <v>0.3586251304764703</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="N34">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O34">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P34">
-        <v>5.43951519097984</v>
+        <v>24.47781835940928</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2070,49 +2070,49 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.240595453709956</v>
+        <v>1.082679541694802</v>
       </c>
       <c r="C35">
-        <v>1.835546039673439</v>
+        <v>8.259957178530476</v>
       </c>
       <c r="D35">
-        <v>0.0004519821820680073</v>
+        <v>0.002033919819306034</v>
       </c>
       <c r="E35">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="F35">
-        <v>0.3006223848291682</v>
+        <v>1.352800731731257</v>
       </c>
       <c r="G35">
-        <v>0.5430205234485838</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="H35">
-        <v>0.07154422567636959</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I35">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J35">
-        <v>0.2109485063218278</v>
+        <v>0.949268278448225</v>
       </c>
       <c r="K35">
-        <v>0.2793866608601966</v>
+        <v>1.257239973870885</v>
       </c>
       <c r="L35">
-        <v>0.3562014274963251</v>
+        <v>1.602906423733463</v>
       </c>
       <c r="M35">
-        <v>0.224140706547794</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="N35">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O35">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P35">
-        <v>4.662911898658313</v>
+        <v>20.98310354396241</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2120,49 +2120,49 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.2120502303884357</v>
+        <v>0.9542260367479611</v>
       </c>
       <c r="C36">
-        <v>1.617769390898625</v>
+        <v>7.279962259043809</v>
       </c>
       <c r="D36">
-        <v>0.0007748265978308698</v>
+        <v>0.003486719690238914</v>
       </c>
       <c r="E36">
-        <v>0.07369981012472279</v>
+        <v>0.3316491455612525</v>
       </c>
       <c r="F36">
-        <v>0.2115490856205258</v>
+        <v>0.9519708852923661</v>
       </c>
       <c r="G36">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="H36">
-        <v>0.09630953456434366</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I36">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J36">
-        <v>0.151882924551716</v>
+        <v>0.6834731604827222</v>
       </c>
       <c r="K36">
-        <v>0.2011583958193416</v>
+        <v>0.9052127811870367</v>
       </c>
       <c r="L36">
-        <v>0.6055424267437527</v>
+        <v>2.724940920346885</v>
       </c>
       <c r="M36">
-        <v>0.3810392011312497</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="N36">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O36">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P36">
-        <v>4.674914755476928</v>
+        <v>21.03711639964617</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2170,49 +2170,49 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.1666108953051996</v>
+        <v>0.7497490288733983</v>
       </c>
       <c r="C37">
-        <v>1.271104521420347</v>
+        <v>5.719970346391564</v>
       </c>
       <c r="D37">
-        <v>0.0003874132989154349</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E37">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F37">
-        <v>0.1670124360162046</v>
+        <v>0.7515559620729207</v>
       </c>
       <c r="G37">
-        <v>0.3016780685825466</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="H37">
-        <v>0.07704762765147492</v>
+        <v>0.3467143244316371</v>
       </c>
       <c r="I37">
-        <v>0.5710473797528773</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="J37">
-        <v>0.1350070440459698</v>
+        <v>0.6075316982068641</v>
       </c>
       <c r="K37">
-        <v>0.1788074629505258</v>
+        <v>0.8046335832773662</v>
       </c>
       <c r="L37">
-        <v>0.3205812847466927</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M37">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N37">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O37">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P37">
-        <v>3.441462750129828</v>
+        <v>15.48658237558423</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2220,43 +2220,43 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.1307837272588018</v>
+        <v>0.5885267726646078</v>
       </c>
       <c r="C38">
-        <v>0.9977726051009373</v>
+        <v>4.489976722954217</v>
       </c>
       <c r="D38">
-        <v>0.0005811199483731523</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E38">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F38">
-        <v>0.1558782736151243</v>
+        <v>0.7014522312680597</v>
       </c>
       <c r="G38">
-        <v>0.2815661973437104</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="H38">
-        <v>0.08805443160168563</v>
+        <v>0.3962449422075854</v>
       </c>
       <c r="I38">
-        <v>0.6526255768604313</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="J38">
-        <v>0.08859837265516766</v>
+        <v>0.3986926769482546</v>
       </c>
       <c r="K38">
-        <v>0.1173423975612825</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="L38">
-        <v>0.213720856497795</v>
+        <v>0.9617438542400777</v>
       </c>
       <c r="M38">
-        <v>0.1344844239286763</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="P38">
-        <v>2.916682839965527</v>
+        <v>13.12507277984488</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2264,49 +2264,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.08592694775355572</v>
+        <v>0.3866712648910009</v>
       </c>
       <c r="C39">
-        <v>0.655552157026228</v>
+        <v>2.949984706618028</v>
       </c>
       <c r="D39">
-        <v>0.0002582755326102899</v>
+        <v>0.001162239896746305</v>
       </c>
       <c r="E39">
-        <v>0.02456660337490759</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="F39">
-        <v>0.06680497440648182</v>
+        <v>0.3006223848291682</v>
       </c>
       <c r="G39">
-        <v>0.1206712274330187</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="H39">
-        <v>0.04953061777594818</v>
+        <v>0.2228877799917668</v>
       </c>
       <c r="I39">
-        <v>0.3671018869839927</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="J39">
-        <v>0.06328455189654834</v>
+        <v>0.2847804835344675</v>
       </c>
       <c r="K39">
-        <v>0.08381599825805897</v>
+        <v>0.3771719921612653</v>
       </c>
       <c r="L39">
-        <v>0.2493409992474274</v>
+        <v>1.122034496613424</v>
       </c>
       <c r="M39">
-        <v>0.1568984945834558</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="N39">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O39">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P39">
-        <v>1.937354809675931</v>
+        <v>8.718096643541694</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2314,43 +2314,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.04456550171625092</v>
+        <v>0.2005447577231292</v>
       </c>
       <c r="C40">
-        <v>0.339998237372925</v>
+        <v>1.529992068178162</v>
       </c>
       <c r="D40">
-        <v>0.0007102577146782973</v>
+        <v>0.003196159716052338</v>
       </c>
       <c r="E40">
-        <v>0.06755815928099589</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="F40">
-        <v>0.0890732992086425</v>
+        <v>0.4008298464388911</v>
       </c>
       <c r="G40">
-        <v>0.1608949699106916</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H40">
-        <v>0.02201360790042141</v>
+        <v>0.09906123555189636</v>
       </c>
       <c r="I40">
-        <v>0.1631563942151078</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="J40">
-        <v>0.07594146227585802</v>
+        <v>0.3417365802413611</v>
       </c>
       <c r="K40">
-        <v>0.1005791979096708</v>
+        <v>0.4526063905935184</v>
       </c>
       <c r="L40">
-        <v>0.1781007137481626</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M40">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P40">
-        <v>1.354662154527302</v>
+        <v>6.095979695372859</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2358,37 +2358,37 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.03058416784448594</v>
+        <v>0.1376287553001867</v>
       </c>
       <c r="C41">
-        <v>0.2333321236873015</v>
+        <v>1.049994556592857</v>
       </c>
       <c r="D41">
-        <v>0.0003228444157628624</v>
+        <v>0.001452799870932881</v>
       </c>
       <c r="E41">
-        <v>0.03070825421863449</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="F41">
-        <v>0.02226832480216063</v>
+        <v>0.1002074616097228</v>
       </c>
       <c r="G41">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="J41">
-        <v>0.03797073113792901</v>
+        <v>0.1708682901206806</v>
       </c>
       <c r="K41">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="L41">
-        <v>0.1781007137481626</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M41">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P41">
-        <v>0.7358708545608422</v>
+        <v>3.31141884552379</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2396,49 +2396,49 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.02475861206458385</v>
+        <v>0.1114137542906273</v>
       </c>
       <c r="C42">
-        <v>0.188887909651625</v>
+        <v>0.8499955934323126</v>
       </c>
       <c r="D42">
-        <v>0.0006456888315257247</v>
+        <v>0.002905599741865762</v>
       </c>
       <c r="E42">
-        <v>0.06141650843726898</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="F42">
-        <v>0.04453664960432125</v>
+        <v>0.2004149232194455</v>
       </c>
       <c r="G42">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="H42">
-        <v>0.002751700987552676</v>
+        <v>0.01238265444398704</v>
       </c>
       <c r="I42">
-        <v>0.02039454927688848</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="J42">
-        <v>0.05062764151723868</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K42">
-        <v>0.06705279860644717</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L42">
-        <v>0.1424805709985299</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M42">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="N42">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O42">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P42">
-        <v>0.8008605483578408</v>
+        <v>3.603872467610284</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2446,37 +2446,37 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.0136900560827699</v>
+        <v>0.06160525237246452</v>
       </c>
       <c r="C43">
-        <v>0.1044439029838397</v>
+        <v>0.4699975634272788</v>
       </c>
       <c r="D43">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E43">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F43">
-        <v>0.04453664960432125</v>
+        <v>0.2004149232194455</v>
       </c>
       <c r="G43">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="J43">
-        <v>0.05484661164367522</v>
+        <v>0.2468097523965385</v>
       </c>
       <c r="K43">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="L43">
-        <v>0.2493409992474274</v>
+        <v>1.122034496613424</v>
       </c>
       <c r="M43">
-        <v>0.1568984945834558</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="P43">
-        <v>0.7954633901051247</v>
+        <v>3.579585255473061</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2484,43 +2484,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.01339877829377479</v>
+        <v>0.06029450232198658</v>
       </c>
       <c r="C44">
-        <v>0.1022216922820559</v>
+        <v>0.4599976152692518</v>
       </c>
       <c r="D44">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E44">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="F44">
-        <v>0.03340248720324091</v>
+        <v>0.1503111924145841</v>
       </c>
       <c r="G44">
-        <v>0.06033561371650933</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="H44">
-        <v>0.0110068039502107</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I44">
-        <v>0.08157819710755392</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J44">
-        <v>0.03375176101149245</v>
+        <v>0.151882924551716</v>
       </c>
       <c r="K44">
-        <v>0.04470186573763146</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="L44">
-        <v>0.07124028549926495</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M44">
-        <v>0.04482814130955878</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="P44">
-        <v>0.5150842852919316</v>
+        <v>2.317879283813693</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2528,43 +2528,43 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.0349533346794125</v>
+        <v>0.1572900060573562</v>
       </c>
       <c r="C45">
-        <v>0.2666652842140589</v>
+        <v>1.199993778963265</v>
       </c>
       <c r="D45">
-        <v>6.456888315257249E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E45">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F45">
-        <v>0.04453664960432125</v>
+        <v>0.2004149232194455</v>
       </c>
       <c r="G45">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="H45">
-        <v>0.005503401975105352</v>
+        <v>0.02476530888797409</v>
       </c>
       <c r="I45">
-        <v>0.04078909855377696</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="J45">
-        <v>0.05484661164367522</v>
+        <v>0.2468097523965385</v>
       </c>
       <c r="K45">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="L45">
-        <v>0.07124028549926495</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M45">
-        <v>0.04482814130955878</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="P45">
-        <v>0.7226570439850504</v>
+        <v>3.251956697932726</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2572,43 +2572,43 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.100782114992306</v>
+        <v>0.4535195174653773</v>
       </c>
       <c r="C46">
-        <v>0.7688849028172032</v>
+        <v>3.459982062677413</v>
       </c>
       <c r="D46">
-        <v>0.0005165510652205799</v>
+        <v>0.002324479793492609</v>
       </c>
       <c r="E46">
-        <v>0.04913320674981518</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="F46">
-        <v>0.1670124360162046</v>
+        <v>0.7515559620729207</v>
       </c>
       <c r="G46">
-        <v>0.3016780685825466</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="H46">
-        <v>0.02476530888797409</v>
+        <v>0.1114438899958834</v>
       </c>
       <c r="I46">
-        <v>0.1835509434919964</v>
+        <v>0.8259792457139835</v>
       </c>
       <c r="J46">
-        <v>0.1771967453103353</v>
+        <v>0.7973853538965091</v>
       </c>
       <c r="K46">
-        <v>0.2346847951225651</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="L46">
-        <v>0.5699222839941196</v>
+        <v>2.564650277973541</v>
       </c>
       <c r="M46">
-        <v>0.3586251304764703</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="P46">
-        <v>2.936752487506757</v>
+        <v>13.21538619378041</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2616,49 +2616,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.1596202283693171</v>
+        <v>0.7182910276619268</v>
       </c>
       <c r="C47">
-        <v>1.217771464577536</v>
+        <v>5.479971590598911</v>
       </c>
       <c r="D47">
-        <v>0.0009039643641360146</v>
+        <v>0.004067839638612067</v>
       </c>
       <c r="E47">
-        <v>0.08598311181217656</v>
+        <v>0.3869240031547946</v>
       </c>
       <c r="F47">
-        <v>0.178146598417285</v>
+        <v>0.8016596928777822</v>
       </c>
       <c r="G47">
-        <v>0.3217899398213832</v>
+        <v>1.448054729196224</v>
       </c>
       <c r="H47">
-        <v>0.09630953456434366</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I47">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J47">
-        <v>0.3164227594827417</v>
+        <v>1.423902417672338</v>
       </c>
       <c r="K47">
-        <v>0.4190799912902949</v>
+        <v>1.885859960806327</v>
       </c>
       <c r="L47">
-        <v>1.175464710737872</v>
+        <v>5.289591198320427</v>
       </c>
       <c r="M47">
-        <v>0.73966433160772</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="N47">
-        <v>0.01319037998654261</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O47">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P47">
-        <v>5.492976236754394</v>
+        <v>24.71839306539477</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2666,49 +2666,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.2103025636544651</v>
+        <v>0.9463615364450936</v>
       </c>
       <c r="C48">
-        <v>1.60443612668792</v>
+        <v>7.219962570095645</v>
       </c>
       <c r="D48">
-        <v>0.0005811199483731523</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E48">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F48">
-        <v>0.2783540600270078</v>
+        <v>1.252593270121535</v>
       </c>
       <c r="G48">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H48">
-        <v>0.1045646375270017</v>
+        <v>0.4705408688715076</v>
       </c>
       <c r="I48">
-        <v>0.7749928725217621</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="J48">
-        <v>0.3459555503677976</v>
+        <v>1.556799976655089</v>
       </c>
       <c r="K48">
-        <v>0.4581941238107223</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="L48">
-        <v>0.7124028549926502</v>
+        <v>3.205812847466926</v>
       </c>
       <c r="M48">
-        <v>0.448281413095588</v>
+        <v>2.017266358930146</v>
       </c>
       <c r="N48">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O48">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P48">
-        <v>5.523341112005137</v>
+        <v>24.85503500402312</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2716,49 +2716,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.2126327859664262</v>
+        <v>0.9568475368489167</v>
       </c>
       <c r="C49">
-        <v>1.622213812302192</v>
+        <v>7.299962155359864</v>
       </c>
       <c r="D49">
-        <v>0.0006456888315257247</v>
+        <v>0.002905599741865762</v>
       </c>
       <c r="E49">
-        <v>0.06141650843726898</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="F49">
-        <v>0.2226832480216062</v>
+        <v>1.002074616097228</v>
       </c>
       <c r="G49">
-        <v>0.4022374247767288</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="H49">
-        <v>0.07154422567636959</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I49">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J49">
-        <v>0.2615761478390665</v>
+        <v>1.177092665275799</v>
       </c>
       <c r="K49">
-        <v>0.3464394594666438</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="L49">
-        <v>1.068604282488975</v>
+        <v>4.808719271200388</v>
       </c>
       <c r="M49">
-        <v>0.6724221196433818</v>
+        <v>3.025899538395219</v>
       </c>
       <c r="N49">
-        <v>0.01582845598385113</v>
+        <v>0.07122805192733005</v>
       </c>
       <c r="O49">
-        <v>0.06578399643833618</v>
+        <v>0.2960279839725128</v>
       </c>
       <c r="P49">
-        <v>5.554286437071472</v>
+        <v>24.99428896682162</v>
       </c>
     </row>
   </sheetData>
